--- a/data/3FEB_25_26/teams_25_26_3FEB.xlsx
+++ b/data/3FEB_25_26/teams_25_26_3FEB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -867,250 +867,250 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8032445226988869</v>
+        <v>0.8163447044879628</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8423285165718387</v>
+        <v>0.8525900728861776</v>
       </c>
       <c r="E2" t="n">
-        <v>89.61307002179362</v>
+        <v>91.07169267932582</v>
       </c>
       <c r="F2" t="n">
-        <v>97.09859249974231</v>
+        <v>98.92860635475979</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.485522477948715</v>
+        <v>-7.856913675433981</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2546231905979556</v>
+        <v>0.2532006971786165</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6501657642974022</v>
+        <v>0.6394078642730474</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4465698781692276</v>
+        <v>0.4417354855033373</v>
       </c>
       <c r="K2" t="n">
-        <v>1425</v>
+        <v>1625</v>
       </c>
       <c r="L2" t="n">
-        <v>538</v>
+        <v>617</v>
       </c>
       <c r="M2" t="n">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="N2" t="n">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="O2" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P2" t="n">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="Q2" t="n">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="R2" t="n">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="S2" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="T2" t="n">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="U2" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="V2" t="n">
-        <v>10.71428571428571</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X2" t="n">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="Y2" t="n">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="Z2" t="n">
-        <v>587</v>
+        <v>678</v>
       </c>
       <c r="AA2" t="n">
-        <v>673.84</v>
+        <v>760.84</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.84</v>
+        <v>679.84</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="n">
         <v>0.754538520106634</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.8681858594885572</v>
+        <v>0.8781508888692915</v>
       </c>
       <c r="AG2" t="n">
         <v>0.8238991552390145</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.8669009983489379</v>
+        <v>0.8812809905333409</v>
       </c>
       <c r="AI2" t="n">
         <v>85.45936916818624</v>
       </c>
       <c r="AJ2" t="n">
-        <v>95.15133782660344</v>
+        <v>96.6840161904654</v>
       </c>
       <c r="AK2" t="n">
         <v>93.0198874921569</v>
       </c>
       <c r="AL2" t="n">
-        <v>102.5368658431896</v>
+        <v>104.8373252173627</v>
       </c>
       <c r="AM2" t="n">
         <v>-7.560518323970636</v>
       </c>
       <c r="AN2" t="n">
-        <v>-7.385528016586154</v>
+        <v>-8.153309026897325</v>
       </c>
       <c r="AO2" t="n">
         <v>0.2816253997940044</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.2186202450032237</v>
+        <v>0.2247759945632286</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.6913584183673469</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.595242225537476</v>
+        <v>0.5874573101787479</v>
       </c>
       <c r="AS2" t="n">
         <v>0.4710747844618812</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.4138966697790227</v>
+        <v>0.4123961865447934</v>
       </c>
       <c r="AU2" t="n">
         <v>825</v>
       </c>
       <c r="AV2" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AW2" t="n">
         <v>296</v>
       </c>
       <c r="AX2" t="n">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="AY2" t="n">
         <v>71</v>
       </c>
       <c r="AZ2" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="BA2" t="n">
         <v>172</v>
       </c>
       <c r="BB2" t="n">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="BC2" t="n">
         <v>31</v>
       </c>
       <c r="BD2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BE2" t="n">
         <v>107</v>
       </c>
       <c r="BF2" t="n">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="BG2" t="n">
         <v>61</v>
       </c>
       <c r="BH2" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="BI2" t="n">
         <v>89</v>
       </c>
       <c r="BJ2" t="n">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="BK2" t="n">
         <v>47</v>
       </c>
       <c r="BL2" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="BM2" t="n">
         <v>102</v>
       </c>
       <c r="BN2" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="BO2" t="n">
         <v>54</v>
       </c>
       <c r="BP2" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="BQ2" t="n">
         <v>9.75</v>
       </c>
       <c r="BR2" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="BS2" t="n">
         <v>19</v>
       </c>
       <c r="BT2" t="n">
-        <v>14.33333333333333</v>
+        <v>14</v>
       </c>
       <c r="BU2" t="n">
         <v>101</v>
       </c>
       <c r="BV2" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="BW2" t="n">
         <v>88</v>
       </c>
       <c r="BX2" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="BY2" t="n">
         <v>323</v>
       </c>
       <c r="BZ2" t="n">
-        <v>264</v>
+        <v>355</v>
       </c>
       <c r="CA2" t="n">
         <v>394.16</v>
       </c>
       <c r="CB2" t="n">
-        <v>279.68</v>
+        <v>366.68</v>
       </c>
       <c r="CC2" t="n">
         <v>347.16</v>
       </c>
       <c r="CD2" t="n">
-        <v>254.68</v>
+        <v>332.68</v>
       </c>
       <c r="CE2" t="n">
         <v>4</v>
       </c>
       <c r="CF2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1383,250 +1383,250 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8044109479310207</v>
+        <v>0.8246798511219837</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8136714737375211</v>
+        <v>0.8397233477910075</v>
       </c>
       <c r="E4" t="n">
-        <v>89.43450576876266</v>
+        <v>91.0032631099606</v>
       </c>
       <c r="F4" t="n">
-        <v>94.67274627019663</v>
+        <v>97.31549004712492</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.238240501433959</v>
+        <v>-6.312226937164315</v>
       </c>
       <c r="H4" t="n">
-        <v>0.260575870397299</v>
+        <v>0.2446705532643033</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6634563746964421</v>
+        <v>0.6608814707165298</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4737963388188914</v>
+        <v>0.4619855895699783</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L4" t="n">
-        <v>505</v>
+        <v>579</v>
       </c>
       <c r="M4" t="n">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="N4" t="n">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O4" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="P4" t="n">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="Q4" t="n">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="R4" t="n">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="S4" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T4" t="n">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="U4" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="V4" t="n">
-        <v>8.428571428571429</v>
+        <v>8.125</v>
       </c>
       <c r="W4" t="n">
-        <v>17.28571428571428</v>
+        <v>16.375</v>
       </c>
       <c r="X4" t="n">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="Y4" t="n">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="Z4" t="n">
-        <v>537</v>
+        <v>624</v>
       </c>
       <c r="AA4" t="n">
-        <v>626.48</v>
+        <v>703.04</v>
       </c>
       <c r="AB4" t="n">
-        <v>564.48</v>
+        <v>637.04</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="n">
         <v>0.8520321434521378</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.7409160205695313</v>
+        <v>0.7973275587918297</v>
       </c>
       <c r="AG4" t="n">
         <v>0.8478094297561951</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.7681541990459558</v>
+        <v>0.8316372658258201</v>
       </c>
       <c r="AI4" t="n">
         <v>95.38047115115043</v>
       </c>
       <c r="AJ4" t="n">
-        <v>81.50655192557898</v>
+        <v>86.62605506877078</v>
       </c>
       <c r="AK4" t="n">
         <v>99.48677468615156</v>
       </c>
       <c r="AL4" t="n">
-        <v>88.25404171559006</v>
+        <v>95.1442054080983</v>
       </c>
       <c r="AM4" t="n">
         <v>-4.106303535001108</v>
       </c>
       <c r="AN4" t="n">
-        <v>-6.747489790011094</v>
+        <v>-8.518150339327523</v>
       </c>
       <c r="AO4" t="n">
         <v>0.2848687770562771</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.2281853281853282</v>
+        <v>0.2044723294723295</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.6542700945626477</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.6757047482081683</v>
+        <v>0.6674928468704119</v>
       </c>
       <c r="AS4" t="n">
         <v>0.4881807550952222</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.4546171171171171</v>
+        <v>0.4357904240447343</v>
       </c>
       <c r="AU4" t="n">
         <v>800</v>
       </c>
       <c r="AV4" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AW4" t="n">
         <v>296</v>
       </c>
       <c r="AX4" t="n">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="AY4" t="n">
         <v>57</v>
       </c>
       <c r="AZ4" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="BA4" t="n">
         <v>132</v>
       </c>
       <c r="BB4" t="n">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
         <v>38</v>
       </c>
       <c r="BD4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="BE4" t="n">
         <v>98</v>
       </c>
       <c r="BF4" t="n">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="BG4" t="n">
         <v>68</v>
       </c>
       <c r="BH4" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="BI4" t="n">
         <v>95</v>
       </c>
       <c r="BJ4" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="BK4" t="n">
         <v>37</v>
       </c>
       <c r="BL4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BM4" t="n">
         <v>103</v>
       </c>
       <c r="BN4" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="BO4" t="n">
         <v>48</v>
       </c>
       <c r="BP4" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="BQ4" t="n">
         <v>6.75</v>
       </c>
       <c r="BR4" t="n">
-        <v>10.66666666666667</v>
+        <v>9.5</v>
       </c>
       <c r="BS4" t="n">
         <v>18.75</v>
       </c>
       <c r="BT4" t="n">
-        <v>15.33333333333333</v>
+        <v>14</v>
       </c>
       <c r="BU4" t="n">
         <v>90</v>
       </c>
       <c r="BV4" t="n">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="BW4" t="n">
         <v>85</v>
       </c>
       <c r="BX4" t="n">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="BY4" t="n">
         <v>316</v>
       </c>
       <c r="BZ4" t="n">
-        <v>221</v>
+        <v>308</v>
       </c>
       <c r="CA4" t="n">
         <v>346.8</v>
       </c>
       <c r="CB4" t="n">
-        <v>279.68</v>
+        <v>356.24</v>
       </c>
       <c r="CC4" t="n">
         <v>309.8</v>
       </c>
       <c r="CD4" t="n">
-        <v>254.68</v>
+        <v>327.24</v>
       </c>
       <c r="CE4" t="n">
         <v>4</v>
       </c>
       <c r="CF4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1641,202 +1641,202 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8074975761487506</v>
+        <v>0.7905816055452511</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8051123687906883</v>
+        <v>0.8109742563986684</v>
       </c>
       <c r="E5" t="n">
-        <v>90.76456675764582</v>
+        <v>88.69633966294009</v>
       </c>
       <c r="F5" t="n">
-        <v>92.26335209112223</v>
+        <v>92.63053740941375</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.498785333476402</v>
+        <v>-3.934197746473645</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2661449269630333</v>
+        <v>0.2578768110926541</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7006167182039542</v>
+        <v>0.7067896284284599</v>
       </c>
       <c r="J5" t="n">
-        <v>0.482508091833192</v>
+        <v>0.4797603698277272</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L5" t="n">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="M5" t="n">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="N5" t="n">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="O5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P5" t="n">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q5" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="R5" t="n">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="S5" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="T5" t="n">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="U5" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="V5" t="n">
-        <v>10</v>
+        <v>9.875</v>
       </c>
       <c r="W5" t="n">
-        <v>15.14285714285714</v>
+        <v>14.875</v>
       </c>
       <c r="X5" t="n">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="Y5" t="n">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Z5" t="n">
-        <v>502</v>
+        <v>575</v>
       </c>
       <c r="AA5" t="n">
-        <v>628.24</v>
+        <v>713.04</v>
       </c>
       <c r="AB5" t="n">
-        <v>559.24</v>
+        <v>636.04</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="n">
         <v>0.8183178863914456</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.7930704958251571</v>
+        <v>0.7628453246990565</v>
       </c>
       <c r="AG5" t="n">
         <v>0.83064566675806</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.7710679715008594</v>
+        <v>0.7913028460392767</v>
       </c>
       <c r="AI5" t="n">
         <v>92.63448967278499</v>
       </c>
       <c r="AJ5" t="n">
-        <v>88.27133620412691</v>
+        <v>84.75818965309519</v>
       </c>
       <c r="AK5" t="n">
         <v>93.81345049704004</v>
       </c>
       <c r="AL5" t="n">
-        <v>90.19655421656516</v>
+        <v>91.44762432178746</v>
       </c>
       <c r="AM5" t="n">
         <v>-1.178960824255023</v>
       </c>
       <c r="AN5" t="n">
-        <v>-1.925218012438241</v>
+        <v>-6.689434668692268</v>
       </c>
       <c r="AO5" t="n">
         <v>0.2847020348837209</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.2414021164021164</v>
+        <v>0.2310515873015873</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.7118097120271034</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.6856927264397553</v>
+        <v>0.7017695448298165</v>
       </c>
       <c r="AS5" t="n">
         <v>0.4881390174153332</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.4750001910570038</v>
+        <v>0.4713817222401212</v>
       </c>
       <c r="AU5" t="n">
         <v>800</v>
       </c>
       <c r="AV5" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AW5" t="n">
         <v>300</v>
       </c>
       <c r="AX5" t="n">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="AY5" t="n">
         <v>93</v>
       </c>
       <c r="AZ5" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="BA5" t="n">
         <v>187</v>
       </c>
       <c r="BB5" t="n">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="BC5" t="n">
         <v>23</v>
       </c>
       <c r="BD5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BE5" t="n">
         <v>85</v>
       </c>
       <c r="BF5" t="n">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="BG5" t="n">
         <v>45</v>
       </c>
       <c r="BH5" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="BI5" t="n">
         <v>74</v>
       </c>
       <c r="BJ5" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="BK5" t="n">
         <v>42</v>
       </c>
       <c r="BL5" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="BM5" t="n">
         <v>103</v>
       </c>
       <c r="BN5" t="n">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="BO5" t="n">
         <v>56</v>
       </c>
       <c r="BP5" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="BQ5" t="n">
         <v>10.75</v>
@@ -1848,43 +1848,43 @@
         <v>15.5</v>
       </c>
       <c r="BT5" t="n">
-        <v>14.66666666666667</v>
+        <v>14.25</v>
       </c>
       <c r="BU5" t="n">
         <v>93</v>
       </c>
       <c r="BV5" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="BW5" t="n">
         <v>73</v>
       </c>
       <c r="BX5" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="BY5" t="n">
         <v>302</v>
       </c>
       <c r="BZ5" t="n">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="CA5" t="n">
         <v>366.56</v>
       </c>
       <c r="CB5" t="n">
-        <v>261.68</v>
+        <v>346.48</v>
       </c>
       <c r="CC5" t="n">
         <v>324.56</v>
       </c>
       <c r="CD5" t="n">
-        <v>234.68</v>
+        <v>311.48</v>
       </c>
       <c r="CE5" t="n">
         <v>4</v>
       </c>
       <c r="CF5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1899,247 +1899,247 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9353330985004595</v>
+        <v>0.9072518577949631</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9085046925704944</v>
+        <v>0.8881433603851475</v>
       </c>
       <c r="E6" t="n">
-        <v>106.8969235005189</v>
+        <v>104.4135278832797</v>
       </c>
       <c r="F6" t="n">
-        <v>102.5513138314949</v>
+        <v>101.187925209027</v>
       </c>
       <c r="G6" t="n">
-        <v>4.345609669024084</v>
+        <v>3.225602674252729</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3159677138668736</v>
+        <v>0.3291033285808828</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6936769347673603</v>
+        <v>0.6813720798262022</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5011043710057647</v>
+        <v>0.5025288246300441</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L6" t="n">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="M6" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="N6" t="n">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="O6" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P6" t="n">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="Q6" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="R6" t="n">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="S6" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="T6" t="n">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="U6" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="V6" t="n">
-        <v>8.428571428571429</v>
+        <v>8.25</v>
       </c>
       <c r="W6" t="n">
-        <v>13.57142857142857</v>
+        <v>13.75</v>
       </c>
       <c r="X6" t="n">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="Y6" t="n">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="Z6" t="n">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="AA6" t="n">
-        <v>627.08</v>
+        <v>714.3200000000001</v>
       </c>
       <c r="AB6" t="n">
-        <v>548.08</v>
+        <v>619.3200000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.903489055686392</v>
+        <v>0.855287584978916</v>
       </c>
       <c r="AF6" t="n">
         <v>0.9592161306110102</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.8159936642122009</v>
+        <v>0.7983987569310804</v>
       </c>
       <c r="AH6" t="n">
         <v>0.9778879638392146</v>
       </c>
       <c r="AI6" t="n">
-        <v>106.1306747147977</v>
+        <v>101.3554456767496</v>
       </c>
       <c r="AJ6" t="n">
         <v>107.4716100898099</v>
       </c>
       <c r="AK6" t="n">
-        <v>90.99619702343766</v>
+        <v>91.15819898051626</v>
       </c>
       <c r="AL6" t="n">
         <v>111.2176514375377</v>
       </c>
       <c r="AM6" t="n">
-        <v>15.13447769135996</v>
+        <v>10.19724669623328</v>
       </c>
       <c r="AN6" t="n">
         <v>-3.746041347727823</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.3536445536445537</v>
+        <v>0.370496573128152</v>
       </c>
       <c r="AP6" t="n">
         <v>0.2877100840336134</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.7315214336490933</v>
+        <v>0.6974505990463438</v>
       </c>
       <c r="AR6" t="n">
         <v>0.6652935606060606</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5384224539154117</v>
+        <v>0.5319418404365588</v>
       </c>
       <c r="AT6" t="n">
         <v>0.4731158088235294</v>
       </c>
       <c r="AU6" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AV6" t="n">
         <v>800</v>
       </c>
       <c r="AW6" t="n">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="AX6" t="n">
         <v>339</v>
       </c>
       <c r="AY6" t="n">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="AZ6" t="n">
         <v>72</v>
       </c>
       <c r="BA6" t="n">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
         <v>141</v>
       </c>
       <c r="BC6" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="BD6" t="n">
         <v>39</v>
       </c>
       <c r="BE6" t="n">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="BF6" t="n">
         <v>107</v>
       </c>
       <c r="BG6" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="BH6" t="n">
         <v>78</v>
       </c>
       <c r="BI6" t="n">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="BJ6" t="n">
         <v>104</v>
       </c>
       <c r="BK6" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="BL6" t="n">
         <v>38</v>
       </c>
       <c r="BM6" t="n">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="BN6" t="n">
         <v>83</v>
       </c>
       <c r="BO6" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="BP6" t="n">
         <v>66</v>
       </c>
       <c r="BQ6" t="n">
-        <v>10.33333333333333</v>
+        <v>9.5</v>
       </c>
       <c r="BR6" t="n">
         <v>7</v>
       </c>
       <c r="BS6" t="n">
-        <v>11.66666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="BT6" t="n">
         <v>15</v>
       </c>
       <c r="BU6" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="BV6" t="n">
         <v>82</v>
       </c>
       <c r="BW6" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="BX6" t="n">
         <v>91</v>
       </c>
       <c r="BY6" t="n">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="BZ6" t="n">
         <v>346</v>
       </c>
       <c r="CA6" t="n">
-        <v>273.32</v>
+        <v>360.56</v>
       </c>
       <c r="CB6" t="n">
         <v>353.76</v>
       </c>
       <c r="CC6" t="n">
-        <v>232.32</v>
+        <v>303.56</v>
       </c>
       <c r="CD6" t="n">
         <v>315.76</v>
       </c>
       <c r="CE6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CF6" t="n">
         <v>4</v>
@@ -2157,250 +2157,250 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8674543664456282</v>
+        <v>0.8522243250258896</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6974092466030012</v>
+        <v>0.699068487384687</v>
       </c>
       <c r="E7" t="n">
-        <v>101.9814200711146</v>
+        <v>100.6892681686942</v>
       </c>
       <c r="F7" t="n">
-        <v>79.81386816459164</v>
+        <v>80.71585446434335</v>
       </c>
       <c r="G7" t="n">
-        <v>22.16755190652294</v>
+        <v>19.97341370435091</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3889507632321221</v>
+        <v>0.3909271559233449</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7106595269686823</v>
+        <v>0.6941955071502285</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5535906624527301</v>
+        <v>0.5453293296461389</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L7" t="n">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="M7" t="n">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="N7" t="n">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="O7" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P7" t="n">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="Q7" t="n">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="R7" t="n">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S7" t="n">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="T7" t="n">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="U7" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="V7" t="n">
-        <v>10.28571428571429</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>14.14285714285714</v>
+        <v>13.875</v>
       </c>
       <c r="X7" t="n">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="Y7" t="n">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="Z7" t="n">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="AA7" t="n">
-        <v>628.36</v>
+        <v>719.5599999999999</v>
       </c>
       <c r="AB7" t="n">
-        <v>533.36</v>
+        <v>607.5599999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AE7" t="n">
         <v>0.8697346670242772</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.8644139656740965</v>
+        <v>0.8347139830275021</v>
       </c>
       <c r="AG7" t="n">
         <v>0.7115850959883969</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6785081140891401</v>
+        <v>0.686551878780977</v>
       </c>
       <c r="AI7" t="n">
         <v>100.9605756720636</v>
       </c>
       <c r="AJ7" t="n">
-        <v>103.3425459365158</v>
+        <v>100.4179606653249</v>
       </c>
       <c r="AK7" t="n">
         <v>78.94608318031288</v>
       </c>
       <c r="AL7" t="n">
-        <v>80.97091481029665</v>
+        <v>82.48562574837381</v>
       </c>
       <c r="AM7" t="n">
         <v>22.01449249175076</v>
       </c>
       <c r="AN7" t="n">
-        <v>22.37163112621917</v>
+        <v>17.93233491695107</v>
       </c>
       <c r="AO7" t="n">
         <v>0.3622114547038328</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.4246031746031746</v>
+        <v>0.4196428571428571</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.7484335839598997</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.6602941176470588</v>
+        <v>0.6399574303405573</v>
       </c>
       <c r="AS7" t="n">
         <v>0.5506967670011148</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5574491897215507</v>
+        <v>0.539961892291163</v>
       </c>
       <c r="AU7" t="n">
         <v>800</v>
       </c>
       <c r="AV7" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AW7" t="n">
         <v>311</v>
       </c>
       <c r="AX7" t="n">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="AY7" t="n">
         <v>99</v>
       </c>
       <c r="AZ7" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="BA7" t="n">
         <v>171</v>
       </c>
       <c r="BB7" t="n">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="BC7" t="n">
         <v>21</v>
       </c>
       <c r="BD7" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="BE7" t="n">
         <v>103</v>
       </c>
       <c r="BF7" t="n">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="BG7" t="n">
         <v>50</v>
       </c>
       <c r="BH7" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="BI7" t="n">
         <v>70</v>
       </c>
       <c r="BJ7" t="n">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="BK7" t="n">
         <v>51</v>
       </c>
       <c r="BL7" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="BM7" t="n">
         <v>100</v>
       </c>
       <c r="BN7" t="n">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="BO7" t="n">
         <v>58</v>
       </c>
       <c r="BP7" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="BQ7" t="n">
         <v>11.75</v>
       </c>
       <c r="BR7" t="n">
-        <v>8.333333333333334</v>
+        <v>8.25</v>
       </c>
       <c r="BS7" t="n">
         <v>13.75</v>
       </c>
       <c r="BT7" t="n">
-        <v>14.66666666666667</v>
+        <v>14</v>
       </c>
       <c r="BU7" t="n">
         <v>88</v>
       </c>
       <c r="BV7" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="BW7" t="n">
         <v>75</v>
       </c>
       <c r="BX7" t="n">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="BY7" t="n">
         <v>241</v>
       </c>
       <c r="BZ7" t="n">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="CA7" t="n">
         <v>359.8</v>
       </c>
       <c r="CB7" t="n">
-        <v>268.56</v>
+        <v>359.76</v>
       </c>
       <c r="CC7" t="n">
         <v>308.8</v>
       </c>
       <c r="CD7" t="n">
-        <v>224.56</v>
+        <v>298.76</v>
       </c>
       <c r="CE7" t="n">
         <v>4</v>
       </c>
       <c r="CF7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2415,247 +2415,247 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.904420409800062</v>
+        <v>0.906920479460873</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8773122687404704</v>
+        <v>0.8811539822743484</v>
       </c>
       <c r="E8" t="n">
-        <v>104.8653915475859</v>
+        <v>105.7245555216229</v>
       </c>
       <c r="F8" t="n">
-        <v>100.5442554684801</v>
+        <v>100.6364799451765</v>
       </c>
       <c r="G8" t="n">
-        <v>4.321136079105852</v>
+        <v>5.088075576446475</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3310383441914314</v>
+        <v>0.344145730654682</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6480642916990843</v>
+        <v>0.6616508498312934</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4814626549920668</v>
+        <v>0.4952929810127953</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L8" t="n">
-        <v>579</v>
+        <v>670</v>
       </c>
       <c r="M8" t="n">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="N8" t="n">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="O8" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="P8" t="n">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="Q8" t="n">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="R8" t="n">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="S8" t="n">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="T8" t="n">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="U8" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="V8" t="n">
-        <v>10.28571428571429</v>
+        <v>9.75</v>
       </c>
       <c r="W8" t="n">
-        <v>12.28571428571429</v>
+        <v>12.375</v>
       </c>
       <c r="X8" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="Y8" t="n">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="Z8" t="n">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="AA8" t="n">
-        <v>639.72</v>
+        <v>738.1600000000001</v>
       </c>
       <c r="AB8" t="n">
-        <v>550.72</v>
+        <v>632.1600000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.9801762114537446</v>
+        <v>0.9522985892701474</v>
       </c>
       <c r="AF8" t="n">
         <v>0.8917944428577815</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.8940697148030783</v>
+        <v>0.9010578459072862</v>
       </c>
       <c r="AH8" t="n">
         <v>0.8745193610633691</v>
       </c>
       <c r="AI8" t="n">
-        <v>110.1485148514851</v>
+        <v>110.9436090956836</v>
       </c>
       <c r="AJ8" t="n">
         <v>103.984870996936</v>
       </c>
       <c r="AK8" t="n">
-        <v>97.09931170108162</v>
+        <v>99.19068149156647</v>
       </c>
       <c r="AL8" t="n">
         <v>101.1184127630465</v>
       </c>
       <c r="AM8" t="n">
-        <v>13.04920315040353</v>
+        <v>11.75292760411719</v>
       </c>
       <c r="AN8" t="n">
         <v>2.866458233889572</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.3650075414781297</v>
       </c>
       <c r="AP8" t="n">
         <v>0.3371917937135328</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.7654751525719268</v>
       </c>
       <c r="AR8" t="n">
         <v>0.6270427489177489</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.5230769230769231</v>
+        <v>0.5575910931174088</v>
       </c>
       <c r="AT8" t="n">
         <v>0.4745269436445907</v>
       </c>
       <c r="AU8" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AV8" t="n">
         <v>1200</v>
       </c>
       <c r="AW8" t="n">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="AX8" t="n">
         <v>490</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AZ8" t="n">
         <v>113</v>
       </c>
       <c r="BA8" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="BB8" t="n">
         <v>238</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BD8" t="n">
         <v>60</v>
       </c>
       <c r="BE8" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="BF8" t="n">
         <v>174</v>
       </c>
       <c r="BG8" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="BH8" t="n">
         <v>84</v>
       </c>
       <c r="BI8" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="BJ8" t="n">
         <v>143</v>
       </c>
       <c r="BK8" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BL8" t="n">
         <v>79</v>
       </c>
       <c r="BM8" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="BN8" t="n">
         <v>125</v>
       </c>
       <c r="BO8" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BP8" t="n">
         <v>85</v>
       </c>
       <c r="BQ8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BR8" t="n">
         <v>10</v>
       </c>
       <c r="BS8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BT8" t="n">
         <v>12.33333333333333</v>
       </c>
       <c r="BU8" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="BV8" t="n">
         <v>134</v>
       </c>
       <c r="BW8" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="BX8" t="n">
         <v>137</v>
       </c>
       <c r="BY8" t="n">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="BZ8" t="n">
         <v>477</v>
       </c>
       <c r="CA8" t="n">
-        <v>90.8</v>
+        <v>189.24</v>
       </c>
       <c r="CB8" t="n">
         <v>548.9200000000001</v>
       </c>
       <c r="CC8" t="n">
-        <v>80.8</v>
+        <v>162.24</v>
       </c>
       <c r="CD8" t="n">
         <v>469.92</v>
       </c>
       <c r="CE8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CF8" t="n">
         <v>6</v>
@@ -2931,247 +2931,247 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8314740898783025</v>
+        <v>0.8340407623503308</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8379799228374335</v>
+        <v>0.8172536588978486</v>
       </c>
       <c r="E10" t="n">
-        <v>92.38773666276943</v>
+        <v>92.73937390960505</v>
       </c>
       <c r="F10" t="n">
-        <v>93.13460378092756</v>
+        <v>90.77012205831161</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.7468671181581309</v>
+        <v>1.969251851293429</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2618730245352244</v>
+        <v>0.2603888964683214</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7380291021406004</v>
+        <v>0.7457754643730253</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5010821505288343</v>
+        <v>0.5058810922390459</v>
       </c>
       <c r="K10" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L10" t="n">
-        <v>533</v>
+        <v>606</v>
       </c>
       <c r="M10" t="n">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="N10" t="n">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="O10" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P10" t="n">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="Q10" t="n">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="R10" t="n">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="S10" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="T10" t="n">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="U10" t="n">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="V10" t="n">
-        <v>11.85714285714286</v>
+        <v>11.625</v>
       </c>
       <c r="W10" t="n">
-        <v>18</v>
+        <v>17.25</v>
       </c>
       <c r="X10" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="Y10" t="n">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Z10" t="n">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="AA10" t="n">
-        <v>642.16</v>
+        <v>727.84</v>
       </c>
       <c r="AB10" t="n">
-        <v>577.16</v>
+        <v>653.84</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.9025702262504404</v>
+        <v>0.8899295371014624</v>
       </c>
       <c r="AF10" t="n">
         <v>0.7781519875991991</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.8729567903192942</v>
+        <v>0.8227600455696593</v>
       </c>
       <c r="AH10" t="n">
         <v>0.8117472722260378</v>
       </c>
       <c r="AI10" t="n">
-        <v>100.5770169559579</v>
+        <v>99.23297137633199</v>
       </c>
       <c r="AJ10" t="n">
         <v>86.24577644287811</v>
       </c>
       <c r="AK10" t="n">
-        <v>97.0485858160592</v>
+        <v>91.3411268620444</v>
       </c>
       <c r="AL10" t="n">
         <v>90.19911725457881</v>
       </c>
       <c r="AM10" t="n">
-        <v>3.528431139898643</v>
+        <v>7.89184451428757</v>
       </c>
       <c r="AN10" t="n">
         <v>-3.953340811700711</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.2729166666666667</v>
+        <v>0.2671875</v>
       </c>
       <c r="AP10" t="n">
         <v>0.2535902929366427</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.7268270944741534</v>
+        <v>0.745120320855615</v>
       </c>
       <c r="AR10" t="n">
         <v>0.7464306078904357</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.5063657407407408</v>
+        <v>0.5146427266081871</v>
       </c>
       <c r="AT10" t="n">
         <v>0.4971194578699045</v>
       </c>
       <c r="AU10" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AV10" t="n">
         <v>800</v>
       </c>
       <c r="AW10" t="n">
-        <v>245</v>
+        <v>318</v>
       </c>
       <c r="AX10" t="n">
         <v>288</v>
       </c>
       <c r="AY10" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AZ10" t="n">
         <v>78</v>
       </c>
       <c r="BA10" t="n">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="BB10" t="n">
         <v>155</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="BD10" t="n">
         <v>27</v>
       </c>
       <c r="BE10" t="n">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="BF10" t="n">
         <v>94</v>
       </c>
       <c r="BG10" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BH10" t="n">
         <v>51</v>
       </c>
       <c r="BI10" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="BJ10" t="n">
         <v>95</v>
       </c>
       <c r="BK10" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="BL10" t="n">
         <v>37</v>
       </c>
       <c r="BM10" t="n">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="BN10" t="n">
         <v>105</v>
       </c>
       <c r="BO10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BP10" t="n">
         <v>71</v>
       </c>
       <c r="BQ10" t="n">
-        <v>13</v>
+        <v>12.25</v>
       </c>
       <c r="BR10" t="n">
         <v>11</v>
       </c>
       <c r="BS10" t="n">
-        <v>15.33333333333333</v>
+        <v>14.5</v>
       </c>
       <c r="BT10" t="n">
         <v>20</v>
       </c>
       <c r="BU10" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="BV10" t="n">
         <v>91</v>
       </c>
       <c r="BW10" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="BX10" t="n">
         <v>84</v>
       </c>
       <c r="BY10" t="n">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="BZ10" t="n">
         <v>295</v>
       </c>
       <c r="CA10" t="n">
-        <v>271.36</v>
+        <v>357.04</v>
       </c>
       <c r="CB10" t="n">
         <v>370.8</v>
       </c>
       <c r="CC10" t="n">
-        <v>243.36</v>
+        <v>320.04</v>
       </c>
       <c r="CD10" t="n">
         <v>333.8</v>
       </c>
       <c r="CE10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CF10" t="n">
         <v>4</v>
@@ -3447,247 +3447,247 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8437042814975884</v>
+        <v>0.8660020545810665</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7555161074473864</v>
+        <v>0.7818968656988038</v>
       </c>
       <c r="E12" t="n">
-        <v>97.32557518628373</v>
+        <v>99.63671534870114</v>
       </c>
       <c r="F12" t="n">
-        <v>89.14331254182311</v>
+        <v>90.74846903638849</v>
       </c>
       <c r="G12" t="n">
-        <v>8.182262644460652</v>
+        <v>8.88824631231267</v>
       </c>
       <c r="H12" t="n">
-        <v>0.346848260490313</v>
+        <v>0.3481350850718811</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6629673003064889</v>
+        <v>0.688429721101511</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5150502951014896</v>
+        <v>0.5282552151103551</v>
       </c>
       <c r="K12" t="n">
-        <v>1425</v>
+        <v>1625</v>
       </c>
       <c r="L12" t="n">
-        <v>556</v>
+        <v>643</v>
       </c>
       <c r="M12" t="n">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="N12" t="n">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="O12" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P12" t="n">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="Q12" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="R12" t="n">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="S12" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="T12" t="n">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="U12" t="n">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="V12" t="n">
-        <v>9.428571428571429</v>
+        <v>8.875</v>
       </c>
       <c r="W12" t="n">
-        <v>15.71428571428571</v>
+        <v>15.375</v>
       </c>
       <c r="X12" t="n">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="n">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="Z12" t="n">
-        <v>503</v>
+        <v>577</v>
       </c>
       <c r="AA12" t="n">
-        <v>660.76</v>
+        <v>745.88</v>
       </c>
       <c r="AB12" t="n">
-        <v>571.76</v>
+        <v>646.88</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.801083184573207</v>
+        <v>0.8563340049712586</v>
       </c>
       <c r="AF12" t="n">
         <v>0.8756701041908743</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.7909644376919688</v>
+        <v>0.8348638716336578</v>
       </c>
       <c r="AH12" t="n">
         <v>0.7289298597639498</v>
       </c>
       <c r="AI12" t="n">
-        <v>93.59885951365759</v>
+        <v>99.15281875664893</v>
       </c>
       <c r="AJ12" t="n">
         <v>100.1206119407534</v>
       </c>
       <c r="AK12" t="n">
-        <v>95.3556245013512</v>
+        <v>97.01285950059994</v>
       </c>
       <c r="AL12" t="n">
         <v>84.48407857217703</v>
       </c>
       <c r="AM12" t="n">
-        <v>-1.756764987693632</v>
+        <v>2.139959256048978</v>
       </c>
       <c r="AN12" t="n">
         <v>15.63653336857636</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.3623034799505387</v>
+        <v>0.3610133242486184</v>
       </c>
       <c r="AP12" t="n">
         <v>0.3352568458951438</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.6094858156028369</v>
+        <v>0.6737810283687944</v>
       </c>
       <c r="AR12" t="n">
         <v>0.7030784138342278</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.4945222533457827</v>
+        <v>0.5260641038024405</v>
       </c>
       <c r="AT12" t="n">
         <v>0.5304463264182698</v>
       </c>
       <c r="AU12" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="AV12" t="n">
         <v>800</v>
       </c>
       <c r="AW12" t="n">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="AX12" t="n">
         <v>326</v>
       </c>
       <c r="AY12" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="AZ12" t="n">
         <v>81</v>
       </c>
       <c r="BA12" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="BB12" t="n">
         <v>155</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="BD12" t="n">
         <v>33</v>
       </c>
       <c r="BE12" t="n">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="BF12" t="n">
         <v>110</v>
       </c>
       <c r="BG12" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="BH12" t="n">
         <v>65</v>
       </c>
       <c r="BI12" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="BJ12" t="n">
         <v>107</v>
       </c>
       <c r="BK12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BL12" t="n">
         <v>48</v>
       </c>
       <c r="BM12" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="BN12" t="n">
         <v>119</v>
       </c>
       <c r="BO12" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="BP12" t="n">
         <v>69</v>
       </c>
       <c r="BQ12" t="n">
-        <v>7.333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="BR12" t="n">
         <v>11</v>
       </c>
       <c r="BS12" t="n">
-        <v>16</v>
+        <v>15.25</v>
       </c>
       <c r="BT12" t="n">
         <v>15.5</v>
       </c>
       <c r="BU12" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="BV12" t="n">
         <v>74</v>
       </c>
       <c r="BW12" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="BX12" t="n">
         <v>88</v>
       </c>
       <c r="BY12" t="n">
-        <v>227</v>
+        <v>301</v>
       </c>
       <c r="BZ12" t="n">
         <v>276</v>
       </c>
       <c r="CA12" t="n">
-        <v>286.68</v>
+        <v>371.8</v>
       </c>
       <c r="CB12" t="n">
         <v>374.08</v>
       </c>
       <c r="CC12" t="n">
-        <v>245.68</v>
+        <v>320.8</v>
       </c>
       <c r="CD12" t="n">
         <v>326.08</v>
       </c>
       <c r="CE12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CF12" t="n">
         <v>4</v>
@@ -3963,247 +3963,247 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8805493116596583</v>
+        <v>0.8749340491964991</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7991245293737632</v>
+        <v>0.7927595019091457</v>
       </c>
       <c r="E14" t="n">
-        <v>104.4545335172599</v>
+        <v>104.0888300621939</v>
       </c>
       <c r="F14" t="n">
-        <v>89.58806078413967</v>
+        <v>89.65216731394537</v>
       </c>
       <c r="G14" t="n">
-        <v>14.86647273312022</v>
+        <v>14.43666274824852</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3886745696446144</v>
+        <v>0.3912266120754013</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7454677227363742</v>
+        <v>0.7266890192990892</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5597150081287127</v>
+        <v>0.5522506321126236</v>
       </c>
       <c r="K14" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L14" t="n">
-        <v>575</v>
+        <v>660</v>
       </c>
       <c r="M14" t="n">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="N14" t="n">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="O14" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="P14" t="n">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="Q14" t="n">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="R14" t="n">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="S14" t="n">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="T14" t="n">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="U14" t="n">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="V14" t="n">
-        <v>9.857142857142858</v>
+        <v>10.125</v>
       </c>
       <c r="W14" t="n">
-        <v>14</v>
+        <v>14.125</v>
       </c>
       <c r="X14" t="n">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="Y14" t="n">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="Z14" t="n">
-        <v>478</v>
+        <v>553</v>
       </c>
       <c r="AA14" t="n">
-        <v>655.04</v>
+        <v>756.76</v>
       </c>
       <c r="AB14" t="n">
-        <v>551.04</v>
+        <v>634.76</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.9163087888132134</v>
+        <v>0.9028618593367419</v>
       </c>
       <c r="AF14" t="n">
         <v>0.7911506187757709</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.8036098796747323</v>
+        <v>0.7943756180050809</v>
       </c>
       <c r="AH14" t="n">
         <v>0.7879111536213401</v>
       </c>
       <c r="AI14" t="n">
-        <v>108.5961615449529</v>
+        <v>107.4182856002494</v>
       </c>
       <c r="AJ14" t="n">
         <v>94.10046344802733</v>
       </c>
       <c r="AK14" t="n">
-        <v>90.52003186908865</v>
+        <v>90.45017872800476</v>
       </c>
       <c r="AL14" t="n">
         <v>87.2581330717672</v>
       </c>
       <c r="AM14" t="n">
-        <v>18.07612967586426</v>
+        <v>16.96810687224466</v>
       </c>
       <c r="AN14" t="n">
         <v>6.842330376260099</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.4047826953748007</v>
+        <v>0.4055007309941521</v>
       </c>
       <c r="AP14" t="n">
         <v>0.348404255319149</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.7445476689737809</v>
+        <v>0.7196627400178333</v>
       </c>
       <c r="AR14" t="n">
         <v>0.7477678571428572</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.5714058894289782</v>
+        <v>0.5595049078574819</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5304878048780488</v>
       </c>
       <c r="AU14" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="AV14" t="n">
         <v>400</v>
       </c>
       <c r="AW14" t="n">
-        <v>422</v>
+        <v>507</v>
       </c>
       <c r="AX14" t="n">
         <v>153</v>
       </c>
       <c r="AY14" t="n">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="AZ14" t="n">
         <v>40</v>
       </c>
       <c r="BA14" t="n">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="BB14" t="n">
         <v>82</v>
       </c>
       <c r="BC14" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="BD14" t="n">
         <v>16</v>
       </c>
       <c r="BE14" t="n">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="BF14" t="n">
         <v>58</v>
       </c>
       <c r="BG14" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="BH14" t="n">
         <v>25</v>
       </c>
       <c r="BI14" t="n">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="BJ14" t="n">
         <v>41</v>
       </c>
       <c r="BK14" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="BL14" t="n">
         <v>30</v>
       </c>
       <c r="BM14" t="n">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="BN14" t="n">
         <v>50</v>
       </c>
       <c r="BO14" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="BP14" t="n">
         <v>25</v>
       </c>
       <c r="BQ14" t="n">
-        <v>8.800000000000001</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="BR14" t="n">
         <v>12.5</v>
       </c>
       <c r="BS14" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="BT14" t="n">
         <v>17.5</v>
       </c>
       <c r="BU14" t="n">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="BV14" t="n">
         <v>46</v>
       </c>
       <c r="BW14" t="n">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="BX14" t="n">
         <v>42</v>
       </c>
       <c r="BY14" t="n">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="BZ14" t="n">
         <v>137</v>
       </c>
       <c r="CA14" t="n">
-        <v>462</v>
+        <v>563.72</v>
       </c>
       <c r="CB14" t="n">
         <v>193.04</v>
       </c>
       <c r="CC14" t="n">
-        <v>388</v>
+        <v>471.72</v>
       </c>
       <c r="CD14" t="n">
         <v>163.04</v>
       </c>
       <c r="CE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF14" t="n">
         <v>2</v>
@@ -4221,250 +4221,250 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8730992555876913</v>
+        <v>0.8574873873463329</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8687358108445109</v>
+        <v>0.8645972359832452</v>
       </c>
       <c r="E15" t="n">
-        <v>100.9638201615419</v>
+        <v>99.60595676917229</v>
       </c>
       <c r="F15" t="n">
-        <v>98.85351695648349</v>
+        <v>99.18794057151455</v>
       </c>
       <c r="G15" t="n">
-        <v>2.110303205058387</v>
+        <v>0.4180161976577539</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3584311167656318</v>
+        <v>0.3642224652651659</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6893995108280822</v>
+        <v>0.6770882083382084</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5215217004467414</v>
+        <v>0.5188314878908987</v>
       </c>
       <c r="K15" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L15" t="n">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="M15" t="n">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="N15" t="n">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="O15" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="P15" t="n">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="Q15" t="n">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="R15" t="n">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="S15" t="n">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="T15" t="n">
+        <v>213</v>
+      </c>
+      <c r="U15" t="n">
+        <v>121</v>
+      </c>
+      <c r="V15" t="n">
+        <v>8.375</v>
+      </c>
+      <c r="W15" t="n">
+        <v>17.125</v>
+      </c>
+      <c r="X15" t="n">
+        <v>195</v>
+      </c>
+      <c r="Y15" t="n">
         <v>187</v>
       </c>
-      <c r="U15" t="n">
-        <v>102</v>
-      </c>
-      <c r="V15" t="n">
-        <v>8.285714285714286</v>
-      </c>
-      <c r="W15" t="n">
-        <v>16.57142857142857</v>
-      </c>
-      <c r="X15" t="n">
-        <v>165</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>164</v>
-      </c>
       <c r="Z15" t="n">
-        <v>595</v>
+        <v>680</v>
       </c>
       <c r="AA15" t="n">
-        <v>711.6800000000001</v>
+        <v>811.92</v>
       </c>
       <c r="AB15" t="n">
-        <v>615.6799999999999</v>
+        <v>698.92</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AE15" t="n">
         <v>0.819398349226835</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.9447004640688331</v>
+        <v>0.8955764254658307</v>
       </c>
       <c r="AG15" t="n">
         <v>0.8586423056038492</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.88219381783206</v>
+        <v>0.8705521663626412</v>
       </c>
       <c r="AI15" t="n">
         <v>95.58039365809557</v>
       </c>
       <c r="AJ15" t="n">
-        <v>108.1417221661369</v>
+        <v>103.631519880249</v>
       </c>
       <c r="AK15" t="n">
         <v>98.08061977628593</v>
       </c>
       <c r="AL15" t="n">
-        <v>99.88404653008023</v>
+        <v>100.2952613667432</v>
       </c>
       <c r="AM15" t="n">
         <v>-2.500226118190352</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.257675636056707</v>
+        <v>3.33625851350586</v>
       </c>
       <c r="AO15" t="n">
         <v>0.3766389240368253</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.3341540404040404</v>
+        <v>0.3518060064935065</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.6717269217269217</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.7129629629629629</v>
+        <v>0.6824494949494949</v>
       </c>
       <c r="AS15" t="n">
         <v>0.5164375095327673</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5283006216653735</v>
+        <v>0.5212254662490301</v>
       </c>
       <c r="AU15" t="n">
         <v>800</v>
       </c>
       <c r="AV15" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AW15" t="n">
         <v>347</v>
       </c>
       <c r="AX15" t="n">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="AY15" t="n">
         <v>101</v>
       </c>
       <c r="AZ15" t="n">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="BA15" t="n">
         <v>202</v>
       </c>
       <c r="BB15" t="n">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="BC15" t="n">
         <v>20</v>
       </c>
       <c r="BD15" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="BE15" t="n">
         <v>91</v>
       </c>
       <c r="BF15" t="n">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="BG15" t="n">
         <v>85</v>
       </c>
       <c r="BH15" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="BI15" t="n">
         <v>122</v>
       </c>
       <c r="BJ15" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="BK15" t="n">
         <v>60</v>
       </c>
       <c r="BL15" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="BM15" t="n">
         <v>104</v>
       </c>
       <c r="BN15" t="n">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="BO15" t="n">
         <v>61</v>
       </c>
       <c r="BP15" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="BQ15" t="n">
         <v>9</v>
       </c>
       <c r="BR15" t="n">
-        <v>7.333333333333333</v>
+        <v>7.75</v>
       </c>
       <c r="BS15" t="n">
         <v>19.25</v>
       </c>
       <c r="BT15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BU15" t="n">
         <v>93</v>
       </c>
       <c r="BV15" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="BW15" t="n">
         <v>97</v>
       </c>
       <c r="BX15" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BY15" t="n">
         <v>346</v>
       </c>
       <c r="BZ15" t="n">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="CA15" t="n">
         <v>423.68</v>
       </c>
       <c r="CB15" t="n">
-        <v>288</v>
+        <v>388.24</v>
       </c>
       <c r="CC15" t="n">
         <v>363.68</v>
       </c>
       <c r="CD15" t="n">
-        <v>252</v>
+        <v>335.24</v>
       </c>
       <c r="CE15" t="n">
         <v>4</v>
       </c>
       <c r="CF15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/3FEB_25_26/teams_25_26_3FEB.xlsx
+++ b/data/3FEB_25_26/teams_25_26_3FEB.xlsx
@@ -867,250 +867,250 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8163447044879628</v>
+        <v>0.7932970823224894</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8525900728861776</v>
+        <v>0.8693574816432452</v>
       </c>
       <c r="E2" t="n">
-        <v>91.07169267932582</v>
+        <v>89.0610599487914</v>
       </c>
       <c r="F2" t="n">
-        <v>98.92860635475979</v>
+        <v>100.7378434452753</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.856913675433981</v>
+        <v>-11.67678349648392</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2532006971786165</v>
+        <v>0.2626554671475524</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6394078642730474</v>
+        <v>0.6279429580851046</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4417354855033373</v>
+        <v>0.437107625332916</v>
       </c>
       <c r="K2" t="n">
-        <v>1625</v>
+        <v>2100</v>
       </c>
       <c r="L2" t="n">
-        <v>617</v>
+        <v>777</v>
       </c>
       <c r="M2" t="n">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="N2" t="n">
-        <v>347</v>
+        <v>443</v>
       </c>
       <c r="O2" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="P2" t="n">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="Q2" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="R2" t="n">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="S2" t="n">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="T2" t="n">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="U2" t="n">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="V2" t="n">
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>16.5</v>
+        <v>17.2</v>
       </c>
       <c r="X2" t="n">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="Y2" t="n">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="Z2" t="n">
-        <v>678</v>
+        <v>884</v>
       </c>
       <c r="AA2" t="n">
-        <v>760.84</v>
+        <v>982.76</v>
       </c>
       <c r="AB2" t="n">
-        <v>679.84</v>
+        <v>871.76</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.754538520106634</v>
+        <v>0.7254139043206014</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.8781508888692915</v>
+        <v>0.8611802603243774</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.8238991552390145</v>
+        <v>0.8591193241912116</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.8812809905333409</v>
+        <v>0.879595639095279</v>
       </c>
       <c r="AI2" t="n">
-        <v>85.45936916818624</v>
+        <v>82.30752689688461</v>
       </c>
       <c r="AJ2" t="n">
-        <v>96.6840161904654</v>
+        <v>95.81459300069818</v>
       </c>
       <c r="AK2" t="n">
-        <v>93.0198874921569</v>
+        <v>97.34924332705886</v>
       </c>
       <c r="AL2" t="n">
-        <v>104.8373252173627</v>
+        <v>104.1264435634918</v>
       </c>
       <c r="AM2" t="n">
-        <v>-7.560518323970636</v>
+        <v>-15.04171643017423</v>
       </c>
       <c r="AN2" t="n">
-        <v>-8.153309026897325</v>
+        <v>-8.311850562793623</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.2816253997940044</v>
+        <v>0.2831950566773088</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.2247759945632286</v>
+        <v>0.242115877617796</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6913584183673469</v>
+        <v>0.6650867346938776</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.5874573101787479</v>
+        <v>0.5907991814763317</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.4710747844618812</v>
+        <v>0.4562249069345843</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.4123961865447934</v>
+        <v>0.4179903437312475</v>
       </c>
       <c r="AU2" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="AV2" t="n">
-        <v>800</v>
+        <v>1075</v>
       </c>
       <c r="AW2" t="n">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="AX2" t="n">
-        <v>321</v>
+        <v>428</v>
       </c>
       <c r="AY2" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AZ2" t="n">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="BA2" t="n">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="BB2" t="n">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="BC2" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="BD2" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="BE2" t="n">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="BF2" t="n">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="BG2" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="BH2" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="BI2" t="n">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="BJ2" t="n">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="BK2" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="BL2" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="BM2" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="BN2" t="n">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="BO2" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="BP2" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="BQ2" t="n">
-        <v>9.75</v>
+        <v>9.6</v>
       </c>
       <c r="BR2" t="n">
-        <v>10.25</v>
+        <v>10.4</v>
       </c>
       <c r="BS2" t="n">
         <v>19</v>
       </c>
       <c r="BT2" t="n">
-        <v>14</v>
+        <v>15.4</v>
       </c>
       <c r="BU2" t="n">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="BV2" t="n">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="BW2" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="BX2" t="n">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="BY2" t="n">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="BZ2" t="n">
-        <v>355</v>
+        <v>475</v>
       </c>
       <c r="CA2" t="n">
-        <v>394.16</v>
+        <v>481.2</v>
       </c>
       <c r="CB2" t="n">
-        <v>366.68</v>
+        <v>501.56</v>
       </c>
       <c r="CC2" t="n">
-        <v>347.16</v>
+        <v>423.2</v>
       </c>
       <c r="CD2" t="n">
-        <v>332.68</v>
+        <v>448.56</v>
       </c>
       <c r="CE2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1125,250 +1125,250 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7305440553126546</v>
+        <v>0.7634732449040145</v>
       </c>
       <c r="D3" t="n">
-        <v>0.954273497423394</v>
+        <v>0.946915239219854</v>
       </c>
       <c r="E3" t="n">
-        <v>82.39402340363384</v>
+        <v>86.51409865300199</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5045871269879</v>
+        <v>108.5165135380053</v>
       </c>
       <c r="G3" t="n">
-        <v>-27.11056372335406</v>
+        <v>-22.00241488500335</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2485298946070223</v>
+        <v>0.2663142257631372</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6668092365049602</v>
+        <v>0.669946907043891</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4448545685848834</v>
+        <v>0.4573015030747458</v>
       </c>
       <c r="K3" t="n">
-        <v>1600</v>
+        <v>2075</v>
       </c>
       <c r="L3" t="n">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="M3" t="n">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="N3" t="n">
-        <v>321</v>
+        <v>443</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="P3" t="n">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="Q3" t="n">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="R3" t="n">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="S3" t="n">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="T3" t="n">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="U3" t="n">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="V3" t="n">
-        <v>7.625</v>
+        <v>8</v>
       </c>
       <c r="W3" t="n">
-        <v>16.375</v>
+        <v>16.7</v>
       </c>
       <c r="X3" t="n">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="Y3" t="n">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="Z3" t="n">
-        <v>711</v>
+        <v>924</v>
       </c>
       <c r="AA3" t="n">
-        <v>725.5600000000001</v>
+        <v>960.04</v>
       </c>
       <c r="AB3" t="n">
-        <v>644.5600000000001</v>
+        <v>848.04</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.7582259691229839</v>
+        <v>0.7811516219669935</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.7028621415023254</v>
+        <v>0.7457948678410355</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.9601538962400827</v>
+        <v>0.9267826662210105</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.9483930986067053</v>
+        <v>0.9670478122186976</v>
       </c>
       <c r="AI3" t="n">
-        <v>84.56442985039514</v>
+        <v>87.90812726991774</v>
       </c>
       <c r="AJ3" t="n">
-        <v>80.22361695687255</v>
+        <v>85.12007003608628</v>
       </c>
       <c r="AK3" t="n">
-        <v>110.9211334754118</v>
+        <v>107.2042868286553</v>
       </c>
       <c r="AL3" t="n">
-        <v>108.088040778564</v>
+        <v>109.8287402473554</v>
       </c>
       <c r="AM3" t="n">
-        <v>-26.35670362501668</v>
+        <v>-19.29615955873758</v>
       </c>
       <c r="AN3" t="n">
-        <v>-27.86442382169145</v>
+        <v>-24.70867021126911</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2291320166320167</v>
+        <v>0.26247227997228</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.2679277725820279</v>
+        <v>0.2701561715539945</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.6585408834586466</v>
+        <v>0.6645376247997041</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.6750775895512737</v>
+        <v>0.6753561892880778</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.4352231075981207</v>
+        <v>0.4601050915830838</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.454486029571646</v>
+        <v>0.4544979145664077</v>
       </c>
       <c r="AU3" t="n">
-        <v>800</v>
+        <v>1075</v>
       </c>
       <c r="AV3" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AW3" t="n">
-        <v>271</v>
+        <v>391</v>
       </c>
       <c r="AX3" t="n">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="AY3" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AZ3" t="n">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="BB3" t="n">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="BC3" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="BD3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BE3" t="n">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="BF3" t="n">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="BG3" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="BH3" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="BI3" t="n">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="BJ3" t="n">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="BK3" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="BL3" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="BM3" t="n">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="BN3" t="n">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="BO3" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="BP3" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="BQ3" t="n">
-        <v>7.25</v>
+        <v>7.8</v>
       </c>
       <c r="BR3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BS3" t="n">
-        <v>17</v>
+        <v>18.8</v>
       </c>
       <c r="BT3" t="n">
-        <v>15.75</v>
+        <v>14.6</v>
       </c>
       <c r="BU3" t="n">
+        <v>131</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>115</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>132</v>
+      </c>
+      <c r="BX3" t="n">
         <v>105</v>
       </c>
-      <c r="BV3" t="n">
-        <v>90</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>99</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>85</v>
-      </c>
       <c r="BY3" t="n">
-        <v>357</v>
+        <v>464</v>
       </c>
       <c r="BZ3" t="n">
-        <v>354</v>
+        <v>460</v>
       </c>
       <c r="CA3" t="n">
-        <v>355.92</v>
+        <v>493.4</v>
       </c>
       <c r="CB3" t="n">
-        <v>369.64</v>
+        <v>466.64</v>
       </c>
       <c r="CC3" t="n">
-        <v>319.92</v>
+        <v>438.4</v>
       </c>
       <c r="CD3" t="n">
-        <v>324.64</v>
+        <v>409.64</v>
       </c>
       <c r="CE3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1383,250 +1383,250 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8246798511219837</v>
+        <v>0.8327069294245133</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8397233477910075</v>
+        <v>0.8393293050409063</v>
       </c>
       <c r="E4" t="n">
-        <v>91.0032631099606</v>
+        <v>92.36380851526111</v>
       </c>
       <c r="F4" t="n">
-        <v>97.31549004712492</v>
+        <v>96.84108713265383</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.312226937164315</v>
+        <v>-4.477278617392719</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2446705532643033</v>
+        <v>0.253168875043875</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6608814707165298</v>
+        <v>0.6719286197966671</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4619855895699783</v>
+        <v>0.4716815858969842</v>
       </c>
       <c r="K4" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>579</v>
+        <v>724</v>
       </c>
       <c r="M4" t="n">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="N4" t="n">
-        <v>283</v>
+        <v>345</v>
       </c>
       <c r="O4" t="n">
+        <v>84</v>
+      </c>
+      <c r="P4" t="n">
+        <v>257</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>166</v>
+      </c>
+      <c r="R4" t="n">
+        <v>248</v>
+      </c>
+      <c r="S4" t="n">
+        <v>86</v>
+      </c>
+      <c r="T4" t="n">
+        <v>253</v>
+      </c>
+      <c r="U4" t="n">
+        <v>128</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>242</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>224</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>773</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>872.12</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>786.12</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.8355395230290805</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.8298743358199461</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.8831655765918413</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.7954930334899715</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>94.03487337482105</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>90.69274365570116</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>102.5584719732926</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>91.12370229201505</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-8.523598598471553</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.4309586363138863</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2927598865098865</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2135778635778636</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.6662732185072611</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.6775840210860731</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.4933223818539555</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.4500407899400128</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>366</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>358</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>83</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>158</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>187</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>45</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>39</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>125</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>132</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>91</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>75</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>129</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>119</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>49</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>37</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>128</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>125</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>60</v>
+      </c>
+      <c r="BP4" t="n">
         <v>68</v>
       </c>
-      <c r="P4" t="n">
-        <v>205</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>131</v>
-      </c>
-      <c r="R4" t="n">
-        <v>191</v>
-      </c>
-      <c r="S4" t="n">
-        <v>66</v>
-      </c>
-      <c r="T4" t="n">
-        <v>200</v>
-      </c>
-      <c r="U4" t="n">
-        <v>100</v>
-      </c>
-      <c r="V4" t="n">
-        <v>8.125</v>
-      </c>
-      <c r="W4" t="n">
-        <v>16.375</v>
-      </c>
-      <c r="X4" t="n">
-        <v>193</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>174</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>624</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>703.04</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>637.04</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.8520321434521378</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.7973275587918297</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.8478094297561951</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.8316372658258201</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>95.38047115115043</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>86.62605506877078</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>99.48677468615156</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>95.1442054080983</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>-4.106303535001108</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>-8.518150339327523</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.2848687770562771</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.2044723294723295</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.6542700945626477</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.6674928468704119</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0.4881807550952222</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0.4357904240447343</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>800</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>800</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>296</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>283</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>57</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>65</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>132</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>38</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>30</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>98</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>107</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>68</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>63</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>95</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>96</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>37</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>103</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>97</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>48</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>52</v>
-      </c>
       <c r="BQ4" t="n">
-        <v>6.75</v>
+        <v>6.2</v>
       </c>
       <c r="BR4" t="n">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BS4" t="n">
-        <v>18.75</v>
+        <v>19.6</v>
       </c>
       <c r="BT4" t="n">
-        <v>14</v>
+        <v>12.6</v>
       </c>
       <c r="BU4" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="BV4" t="n">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="BW4" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="BX4" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="BY4" t="n">
-        <v>316</v>
+        <v>411</v>
       </c>
       <c r="BZ4" t="n">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="CA4" t="n">
-        <v>346.8</v>
+        <v>437.76</v>
       </c>
       <c r="CB4" t="n">
-        <v>356.24</v>
+        <v>434.36</v>
       </c>
       <c r="CC4" t="n">
-        <v>309.8</v>
+        <v>388.76</v>
       </c>
       <c r="CD4" t="n">
-        <v>327.24</v>
+        <v>397.36</v>
       </c>
       <c r="CE4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1641,250 +1641,250 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7905816055452511</v>
+        <v>0.7776569352046142</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8109742563986684</v>
+        <v>0.8453817442273118</v>
       </c>
       <c r="E5" t="n">
-        <v>88.69633966294009</v>
+        <v>87.35089340996731</v>
       </c>
       <c r="F5" t="n">
-        <v>92.63053740941375</v>
+        <v>96.99357725993534</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.934197746473645</v>
+        <v>-9.642683849968014</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2578768110926541</v>
+        <v>0.2620290030536899</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7067896284284599</v>
+        <v>0.694852434450085</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4797603698277272</v>
+        <v>0.4768654496788293</v>
       </c>
       <c r="K5" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>564</v>
+        <v>691</v>
       </c>
       <c r="M5" t="n">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="N5" t="n">
-        <v>327</v>
+        <v>410</v>
       </c>
       <c r="O5" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P5" t="n">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="Q5" t="n">
+        <v>132</v>
+      </c>
+      <c r="R5" t="n">
+        <v>221</v>
+      </c>
+      <c r="S5" t="n">
         <v>97</v>
       </c>
-      <c r="R5" t="n">
-        <v>166</v>
-      </c>
-      <c r="S5" t="n">
-        <v>77</v>
-      </c>
       <c r="T5" t="n">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="U5" t="n">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="V5" t="n">
-        <v>9.875</v>
+        <v>8.9</v>
       </c>
       <c r="W5" t="n">
-        <v>14.875</v>
+        <v>15.1</v>
       </c>
       <c r="X5" t="n">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="Y5" t="n">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="Z5" t="n">
-        <v>575</v>
+        <v>749</v>
       </c>
       <c r="AA5" t="n">
-        <v>713.04</v>
+        <v>888.24</v>
       </c>
       <c r="AB5" t="n">
-        <v>636.04</v>
+        <v>791.24</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.8183178863914456</v>
+        <v>0.8145245593448525</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.7628453246990565</v>
+        <v>0.7407893110643757</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.83064566675806</v>
+        <v>0.8534104796968439</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.7913028460392767</v>
+        <v>0.8373530087577798</v>
       </c>
       <c r="AI5" t="n">
-        <v>92.63448967278499</v>
+        <v>92.18935274451731</v>
       </c>
       <c r="AJ5" t="n">
-        <v>84.75818965309519</v>
+        <v>82.51243407541732</v>
       </c>
       <c r="AK5" t="n">
-        <v>93.81345049704004</v>
+        <v>97.51962883293251</v>
       </c>
       <c r="AL5" t="n">
-        <v>91.44762432178746</v>
+        <v>96.46752568693816</v>
       </c>
       <c r="AM5" t="n">
-        <v>-1.178960824255023</v>
+        <v>-5.330276088415197</v>
       </c>
       <c r="AN5" t="n">
-        <v>-6.689434668692268</v>
+        <v>-13.95509161152083</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.2847020348837209</v>
+        <v>0.2865851573187414</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.2310515873015873</v>
+        <v>0.2374728487886383</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.7118097120271034</v>
+        <v>0.6819477696216827</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.7017695448298165</v>
+        <v>0.7077570992784873</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.4881390174153332</v>
+        <v>0.4753596987807514</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.4713817222401212</v>
+        <v>0.4783712005769071</v>
       </c>
       <c r="AU5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AV5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AW5" t="n">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="AX5" t="n">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="AY5" t="n">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="AZ5" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="BA5" t="n">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="BB5" t="n">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BD5" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="BE5" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="BF5" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="BG5" t="n">
+        <v>65</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>102</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>119</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>52</v>
+      </c>
+      <c r="BL5" t="n">
         <v>45</v>
       </c>
-      <c r="BH5" t="n">
-        <v>52</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>74</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>92</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>42</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>35</v>
-      </c>
       <c r="BM5" t="n">
+        <v>121</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>132</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>71</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>63</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>15</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>115</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>107</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>95</v>
+      </c>
+      <c r="BX5" t="n">
         <v>103</v>
       </c>
-      <c r="BN5" t="n">
-        <v>102</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>56</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>53</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>9</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>93</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>84</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>73</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>80</v>
-      </c>
       <c r="BY5" t="n">
-        <v>302</v>
+        <v>385</v>
       </c>
       <c r="BZ5" t="n">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="CA5" t="n">
-        <v>366.56</v>
+        <v>452.88</v>
       </c>
       <c r="CB5" t="n">
-        <v>346.48</v>
+        <v>435.36</v>
       </c>
       <c r="CC5" t="n">
-        <v>324.56</v>
+        <v>400.88</v>
       </c>
       <c r="CD5" t="n">
-        <v>311.48</v>
+        <v>390.36</v>
       </c>
       <c r="CE5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1899,250 +1899,250 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9072518577949631</v>
+        <v>0.9115239453934965</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8881433603851475</v>
+        <v>0.874181870840234</v>
       </c>
       <c r="E6" t="n">
-        <v>104.4135278832797</v>
+        <v>105.1202861100729</v>
       </c>
       <c r="F6" t="n">
-        <v>101.187925209027</v>
+        <v>99.25047992962551</v>
       </c>
       <c r="G6" t="n">
-        <v>3.225602674252729</v>
+        <v>5.869806180447329</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3291033285808828</v>
+        <v>0.3382826628647062</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6813720798262022</v>
+        <v>0.6928287562979365</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5025288246300441</v>
+        <v>0.5148226978768078</v>
       </c>
       <c r="K6" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>648</v>
+        <v>808</v>
       </c>
       <c r="M6" t="n">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="N6" t="n">
-        <v>292</v>
+        <v>363</v>
       </c>
       <c r="O6" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="P6" t="n">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="Q6" t="n">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="R6" t="n">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="S6" t="n">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="T6" t="n">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="U6" t="n">
+        <v>135</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>211</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>227</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>768</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>886.5599999999999</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>767.5599999999999</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.866781040007789</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.9562668507792041</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.8061831203774001</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.9421806213030678</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>101.7944157129973</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>108.4461565071484</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>91.44507770293151</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>107.0558821563195</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>10.34933801006574</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.390274350828919</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.3588972585025216</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.3176680672268907</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.7122461935227893</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.6734113190730838</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.5360012335432769</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.4936441622103387</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>386</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>422</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>92</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>91</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>184</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>179</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>39</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>48</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>142</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>131</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>85</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>96</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>118</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>131</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>52</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>130</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>107</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>57</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>78</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>106</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>105</v>
+      </c>
+      <c r="BW6" t="n">
         <v>114</v>
       </c>
-      <c r="V6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W6" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="X6" t="n">
-        <v>168</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>183</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>629</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>714.3200000000001</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>619.3200000000001</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.855287584978916</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.9592161306110102</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.7983987569310804</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.9778879638392146</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>101.3554456767496</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>107.4716100898099</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>91.15819898051626</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>111.2176514375377</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>10.19724669623328</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>-3.746041347727823</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.370496573128152</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.2877100840336134</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0.6974505990463438</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0.6652935606060606</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0.5319418404365588</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0.4731158088235294</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>800</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>800</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>309</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>339</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>73</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>72</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>141</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>31</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>39</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>116</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>107</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>70</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>78</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>99</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>104</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>57</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>38</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>103</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>83</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>48</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>66</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>7</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>86</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>82</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>92</v>
-      </c>
       <c r="BX6" t="n">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="BY6" t="n">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="BZ6" t="n">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="CA6" t="n">
-        <v>360.56</v>
+        <v>444.92</v>
       </c>
       <c r="CB6" t="n">
-        <v>353.76</v>
+        <v>441.64</v>
       </c>
       <c r="CC6" t="n">
-        <v>303.56</v>
+        <v>377.92</v>
       </c>
       <c r="CD6" t="n">
-        <v>315.76</v>
+        <v>389.64</v>
       </c>
       <c r="CE6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2157,250 +2157,250 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8522243250258896</v>
+        <v>0.8863938423773335</v>
       </c>
       <c r="D7" t="n">
-        <v>0.699068487384687</v>
+        <v>0.7014682196939999</v>
       </c>
       <c r="E7" t="n">
-        <v>100.6892681686942</v>
+        <v>103.6906537618952</v>
       </c>
       <c r="F7" t="n">
-        <v>80.71585446434335</v>
+        <v>80.79087297489562</v>
       </c>
       <c r="G7" t="n">
-        <v>19.97341370435091</v>
+        <v>22.89978078699957</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3909271559233449</v>
+        <v>0.3681424216027874</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6941955071502285</v>
+        <v>0.6966081838140662</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5453293296461389</v>
+        <v>0.5342416634356172</v>
       </c>
       <c r="K7" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>611</v>
+        <v>797</v>
       </c>
       <c r="M7" t="n">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="N7" t="n">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="O7" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="P7" t="n">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="Q7" t="n">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="R7" t="n">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="S7" t="n">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="T7" t="n">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="U7" t="n">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="V7" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="W7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>235</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>219</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>615</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>901.36</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>768.36</v>
+      </c>
+      <c r="AC7" t="n">
         <v>10</v>
       </c>
-      <c r="W7" t="n">
-        <v>13.875</v>
-      </c>
-      <c r="X7" t="n">
-        <v>185</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>167</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>487</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>719.5599999999999</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>607.5599999999999</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
       <c r="AD7" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.8697346670242772</v>
+        <v>0.9000984655457801</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.8347139830275021</v>
+        <v>0.8726892192088869</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.7115850959883969</v>
+        <v>0.699781128095848</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.686551878780977</v>
+        <v>0.7031553112921519</v>
       </c>
       <c r="AI7" t="n">
-        <v>100.9605756720636</v>
+        <v>104.0778867671591</v>
       </c>
       <c r="AJ7" t="n">
-        <v>100.4179606653249</v>
+        <v>103.3034207566313</v>
       </c>
       <c r="AK7" t="n">
-        <v>78.94608318031288</v>
+        <v>77.86274889719149</v>
       </c>
       <c r="AL7" t="n">
-        <v>82.48562574837381</v>
+        <v>83.71899705259975</v>
       </c>
       <c r="AM7" t="n">
-        <v>22.01449249175076</v>
+        <v>26.21513786996763</v>
       </c>
       <c r="AN7" t="n">
-        <v>17.93233491695107</v>
+        <v>19.58442370403152</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.3622114547038328</v>
+        <v>0.3434277003484321</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.4196428571428571</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.7484335839598997</v>
+        <v>0.7461152882205513</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.6399574303405573</v>
+        <v>0.6471010794075809</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5506967670011148</v>
+        <v>0.5392915908160817</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.539961892291163</v>
+        <v>0.5291917360551526</v>
       </c>
       <c r="AU7" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AV7" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AW7" t="n">
-        <v>311</v>
+        <v>402</v>
       </c>
       <c r="AX7" t="n">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="AY7" t="n">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AZ7" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="BA7" t="n">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="BB7" t="n">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="BC7" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="BD7" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="BE7" t="n">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="BF7" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="BG7" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="BH7" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="BI7" t="n">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="BJ7" t="n">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="BK7" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="BL7" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="BM7" t="n">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="BN7" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="BO7" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="BP7" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="BQ7" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="BR7" t="n">
-        <v>8.25</v>
+        <v>9.4</v>
       </c>
       <c r="BS7" t="n">
-        <v>13.75</v>
+        <v>12.4</v>
       </c>
       <c r="BT7" t="n">
-        <v>14</v>
+        <v>12.6</v>
       </c>
       <c r="BU7" t="n">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="BV7" t="n">
+        <v>124</v>
+      </c>
+      <c r="BW7" t="n">
         <v>97</v>
       </c>
-      <c r="BW7" t="n">
-        <v>75</v>
-      </c>
       <c r="BX7" t="n">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="BY7" t="n">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="BZ7" t="n">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="CA7" t="n">
-        <v>359.8</v>
+        <v>448.88</v>
       </c>
       <c r="CB7" t="n">
-        <v>359.76</v>
+        <v>452.48</v>
       </c>
       <c r="CC7" t="n">
-        <v>308.8</v>
+        <v>386.88</v>
       </c>
       <c r="CD7" t="n">
-        <v>298.76</v>
+        <v>381.48</v>
       </c>
       <c r="CE7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2415,250 +2415,250 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.906920479460873</v>
+        <v>0.8951792677170133</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8811539822743484</v>
+        <v>0.867303486777071</v>
       </c>
       <c r="E8" t="n">
-        <v>105.7245555216229</v>
+        <v>104.623701522886</v>
       </c>
       <c r="F8" t="n">
-        <v>100.6364799451765</v>
+        <v>98.73562781659976</v>
       </c>
       <c r="G8" t="n">
-        <v>5.088075576446475</v>
+        <v>5.888073706286256</v>
       </c>
       <c r="H8" t="n">
-        <v>0.344145730654682</v>
+        <v>0.3428198020269632</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6616508498312934</v>
+        <v>0.670551449095804</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4952929810127953</v>
+        <v>0.4957166627871378</v>
       </c>
       <c r="K8" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L8" t="n">
-        <v>670</v>
+        <v>826</v>
       </c>
       <c r="M8" t="n">
+        <v>204</v>
+      </c>
+      <c r="N8" t="n">
+        <v>404</v>
+      </c>
+      <c r="O8" t="n">
+        <v>91</v>
+      </c>
+      <c r="P8" t="n">
+        <v>291</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>145</v>
+      </c>
+      <c r="R8" t="n">
+        <v>239</v>
+      </c>
+      <c r="S8" t="n">
+        <v>133</v>
+      </c>
+      <c r="T8" t="n">
+        <v>222</v>
+      </c>
+      <c r="U8" t="n">
+        <v>132</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="W8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="X8" t="n">
+        <v>230</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>220</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>776</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>922.1600000000001</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>789.1600000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.9548191874948161</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.8696193020979548</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.8629031330216382</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.8691893526722565</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>113.2411062958905</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>100.9305280487413</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>96.50218702712988</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>99.69281672637258</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>16.73891926876061</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.237711322368674</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.3782589959060547</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.327631576078781</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.7410859991505152</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.6403223562152134</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.5527973542593426</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.4712535092990501</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>600</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>268</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>558</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>72</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>132</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>128</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>276</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>66</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>89</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>202</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>49</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>96</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>68</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>171</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>44</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>89</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>79</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>143</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>37</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>95</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>10.28571428571429</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>11.33333333333333</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>12.57142857142857</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>69</v>
+      </c>
+      <c r="BV8" t="n">
         <v>161</v>
       </c>
-      <c r="N8" t="n">
-        <v>325</v>
-      </c>
-      <c r="O8" t="n">
-        <v>77</v>
-      </c>
-      <c r="P8" t="n">
-        <v>231</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>117</v>
-      </c>
-      <c r="R8" t="n">
-        <v>189</v>
-      </c>
-      <c r="S8" t="n">
-        <v>106</v>
-      </c>
-      <c r="T8" t="n">
-        <v>177</v>
-      </c>
-      <c r="U8" t="n">
-        <v>108</v>
-      </c>
-      <c r="V8" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W8" t="n">
-        <v>12.375</v>
-      </c>
-      <c r="X8" t="n">
-        <v>176</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>181</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>635</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>738.1600000000001</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>632.1600000000001</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.9522985892701474</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.8917944428577815</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.9010578459072862</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.8745193610633691</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>110.9436090956836</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>103.984870996936</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>99.19068149156647</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>101.1184127630465</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>11.75292760411719</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>2.866458233889572</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.3650075414781297</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.3371917937135328</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.7654751525719268</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0.6270427489177489</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0.5575910931174088</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0.4745269436445907</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>400</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>180</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>490</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>113</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>87</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>238</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>57</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>174</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>33</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>84</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>46</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>143</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>27</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>79</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>52</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>125</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>23</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>85</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>9</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>10</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>12.33333333333333</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>42</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>134</v>
-      </c>
       <c r="BW8" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="BX8" t="n">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="BY8" t="n">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="BZ8" t="n">
-        <v>477</v>
+        <v>549</v>
       </c>
       <c r="CA8" t="n">
-        <v>189.24</v>
+        <v>280.92</v>
       </c>
       <c r="CB8" t="n">
-        <v>548.9200000000001</v>
+        <v>641.24</v>
       </c>
       <c r="CC8" t="n">
-        <v>162.24</v>
+        <v>236.92</v>
       </c>
       <c r="CD8" t="n">
-        <v>469.92</v>
+        <v>552.24</v>
       </c>
       <c r="CE8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CF8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2673,250 +2673,250 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8709633879716119</v>
+        <v>0.866450339774649</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9073241882337703</v>
+        <v>0.8934094251180115</v>
       </c>
       <c r="E9" t="n">
-        <v>100.0125479841671</v>
+        <v>99.01588634055004</v>
       </c>
       <c r="F9" t="n">
-        <v>103.7680574624162</v>
+        <v>102.565990560572</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.755509478249109</v>
+        <v>-3.550104220022</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3235071708125148</v>
+        <v>0.3113926092368844</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6694020014332515</v>
+        <v>0.6702716011466012</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4940703186050048</v>
+        <v>0.4906070869306671</v>
       </c>
       <c r="K9" t="n">
-        <v>1650</v>
+        <v>2050</v>
       </c>
       <c r="L9" t="n">
-        <v>668</v>
+        <v>818</v>
       </c>
       <c r="M9" t="n">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>340</v>
+        <v>418</v>
       </c>
       <c r="O9" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="P9" t="n">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="Q9" t="n">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="R9" t="n">
+        <v>254</v>
+      </c>
+      <c r="S9" t="n">
+        <v>124</v>
+      </c>
+      <c r="T9" t="n">
+        <v>258</v>
+      </c>
+      <c r="U9" t="n">
+        <v>106</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="W9" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>262</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>230</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>858</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>953.76</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>829.76</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.868788464554244</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.864112214995054</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.9186589599333738</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.8681598903026492</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>98.91255672406392</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>99.11921595703616</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>105.3781260491041</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>99.75385507203997</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-6.465569325040194</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.6346391150038062</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.3143562737251377</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.3084289447486311</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.6831466011466011</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.6573966011466011</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.5045083340682599</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.4767058397930742</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1050</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>409</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>409</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA9" t="n">
         <v>207</v>
       </c>
-      <c r="S9" t="n">
-        <v>105</v>
-      </c>
-      <c r="T9" t="n">
-        <v>203</v>
-      </c>
-      <c r="U9" t="n">
-        <v>90</v>
-      </c>
-      <c r="V9" t="n">
-        <v>8.625</v>
-      </c>
-      <c r="W9" t="n">
-        <v>15.625</v>
-      </c>
-      <c r="X9" t="n">
-        <v>214</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>184</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>705</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>777.08</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>672.08</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="BB9" t="n">
+        <v>211</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>42</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>38</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>132</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>136</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>83</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>95</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>118</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>136</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>59</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>65</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>135</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>123</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>52</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BR9" t="n">
         <v>8</v>
       </c>
-      <c r="AD9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.8711166507400763</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.8708101252031476</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.9576372286200492</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0.8570111478474912</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>99.2742241701871</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>100.750871798147</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>108.7313700492795</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>98.80474487555291</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>-9.457145879092353</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1.946126922594135</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.3186210178320978</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0.3283933237929318</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0.6889332514332515</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0.6498707514332515</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0.5041986359761296</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0.48394200123388</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>800</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>850</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>329</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>339</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>82</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>168</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>172</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>35</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>32</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>108</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>113</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>60</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>83</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>86</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>121</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>48</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>57</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>102</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>49</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>8.5</v>
-      </c>
       <c r="BS9" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="BT9" t="n">
-        <v>14.75</v>
+        <v>14.8</v>
       </c>
       <c r="BU9" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="BV9" t="n">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="BW9" t="n">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="BX9" t="n">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="BY9" t="n">
-        <v>363</v>
+        <v>439</v>
       </c>
       <c r="BZ9" t="n">
-        <v>342</v>
+        <v>419</v>
       </c>
       <c r="CA9" t="n">
-        <v>379.84</v>
+        <v>472.92</v>
       </c>
       <c r="CB9" t="n">
-        <v>397.24</v>
+        <v>480.84</v>
       </c>
       <c r="CC9" t="n">
-        <v>331.84</v>
+        <v>413.92</v>
       </c>
       <c r="CD9" t="n">
-        <v>340.24</v>
+        <v>415.84</v>
       </c>
       <c r="CE9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2931,250 +2931,250 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8340407623503308</v>
+        <v>0.815257915906107</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8172536588978486</v>
+        <v>0.8271630865119578</v>
       </c>
       <c r="E10" t="n">
-        <v>92.73937390960505</v>
+        <v>91.3825321772936</v>
       </c>
       <c r="F10" t="n">
-        <v>90.77012205831161</v>
+        <v>92.21890155396447</v>
       </c>
       <c r="G10" t="n">
-        <v>1.969251851293429</v>
+        <v>-0.8363693766708702</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2603888964683214</v>
+        <v>0.2735611171746571</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7457754643730253</v>
+        <v>0.7371609120389608</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5058810922390459</v>
+        <v>0.5063040741910367</v>
       </c>
       <c r="K10" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L10" t="n">
-        <v>606</v>
+        <v>752</v>
       </c>
       <c r="M10" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="N10" t="n">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="O10" t="n">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="P10" t="n">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="Q10" t="n">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="R10" t="n">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="S10" t="n">
+        <v>101</v>
+      </c>
+      <c r="T10" t="n">
+        <v>264</v>
+      </c>
+      <c r="U10" t="n">
+        <v>170</v>
+      </c>
+      <c r="V10" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>18</v>
+      </c>
+      <c r="X10" t="n">
+        <v>235</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>213</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>761</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>925.04</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>824.04</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.85544506469552</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.7750707671166938</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.8330332112809022</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.8212929617430133</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>95.37541319060419</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>87.38965116398302</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>92.78533191635168</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>91.65247119157728</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>2.590081274252518</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-4.262820027594257</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.27625</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.2708722343493141</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.7366367972250325</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.7376850268528892</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.5160620073735063</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.4965461410085673</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>388</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>364</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>92</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>194</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>198</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>38</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>121</v>
+      </c>
+      <c r="BG10" t="n">
         <v>74</v>
       </c>
-      <c r="T10" t="n">
-        <v>212</v>
-      </c>
-      <c r="U10" t="n">
-        <v>138</v>
-      </c>
-      <c r="V10" t="n">
-        <v>11.625</v>
-      </c>
-      <c r="W10" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="X10" t="n">
-        <v>189</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>169</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>596</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>727.84</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>653.84</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.8899295371014624</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.7781519875991991</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0.8227600455696593</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0.8117472722260378</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>99.23297137633199</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>86.24577644287811</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>91.3411268620444</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>90.19911725457881</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>7.89184451428757</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>-3.953340811700711</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0.2671875</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0.2535902929366427</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0.745120320855615</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0.7464306078904357</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0.5146427266081871</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0.4971194578699045</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>800</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>800</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>318</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>288</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>82</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>78</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>148</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>155</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>31</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>27</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>111</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>94</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>61</v>
-      </c>
       <c r="BH10" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="BI10" t="n">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="BJ10" t="n">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="BK10" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BL10" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="BM10" t="n">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="BN10" t="n">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="BO10" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="BP10" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="BQ10" t="n">
-        <v>12.25</v>
+        <v>12.4</v>
       </c>
       <c r="BR10" t="n">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="BS10" t="n">
-        <v>14.5</v>
+        <v>16.8</v>
       </c>
       <c r="BT10" t="n">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="BU10" t="n">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="BV10" t="n">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="BW10" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="BX10" t="n">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="BY10" t="n">
-        <v>301</v>
+        <v>386</v>
       </c>
       <c r="BZ10" t="n">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="CA10" t="n">
-        <v>357.04</v>
+        <v>454.6</v>
       </c>
       <c r="CB10" t="n">
-        <v>370.8</v>
+        <v>470.44</v>
       </c>
       <c r="CC10" t="n">
-        <v>320.04</v>
+        <v>407.6</v>
       </c>
       <c r="CD10" t="n">
-        <v>333.8</v>
+        <v>416.44</v>
       </c>
       <c r="CE10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -3189,250 +3189,250 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8556989377901986</v>
+        <v>0.853638753785753</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8593590691545543</v>
+        <v>0.8817566538302302</v>
       </c>
       <c r="E11" t="n">
-        <v>96.78010420993121</v>
+        <v>96.57570672151049</v>
       </c>
       <c r="F11" t="n">
-        <v>96.56872373103185</v>
+        <v>98.37264473281681</v>
       </c>
       <c r="G11" t="n">
-        <v>0.211380478899349</v>
+        <v>-1.796938011306332</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2878841451279652</v>
+        <v>0.2897624443075004</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7201704909114184</v>
+        <v>0.734469726062468</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5048850828335756</v>
+        <v>0.5096554538179736</v>
       </c>
       <c r="K11" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="n">
-        <v>619</v>
+        <v>770</v>
       </c>
       <c r="M11" t="n">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="N11" t="n">
-        <v>298</v>
+        <v>385</v>
       </c>
       <c r="O11" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="P11" t="n">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="Q11" t="n">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="R11" t="n">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="S11" t="n">
+        <v>102</v>
+      </c>
+      <c r="T11" t="n">
+        <v>253</v>
+      </c>
+      <c r="U11" t="n">
+        <v>137</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W11" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>219</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>226</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>779</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>897</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>795</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.7911065615281678</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.9161709460433383</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.8422264542018972</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.921286853458563</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>90.9037778570208</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>102.2476355860002</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>94.67346292743284</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>102.0718265382008</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-3.769685070412041</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.1758090477993768</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.3000167278568401</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.2795081607581608</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.7177182539682539</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.7512211981566821</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.5012536202048458</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.5180572874311015</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>349</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>421</v>
+      </c>
+      <c r="AY11" t="n">
         <v>81</v>
       </c>
-      <c r="T11" t="n">
-        <v>204</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="AZ11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>187</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>198</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>43</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>123</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>122</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>79</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>90</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>118</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>132</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>55</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>47</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>122</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>131</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>56</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>117</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>102</v>
+      </c>
+      <c r="BW11" t="n">
         <v>107</v>
       </c>
-      <c r="V11" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W11" t="n">
-        <v>16.375</v>
-      </c>
-      <c r="X11" t="n">
-        <v>175</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>193</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>618</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>720.76</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>639.76</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.8261541758735657</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0.8852436997068316</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0.8127677067692687</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0.9059504315398399</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>94.86929986435548</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>98.69090855550694</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>91.60195415843538</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>101.5354933036283</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>3.267345705920115</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>-2.844584748121417</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0.3045080893082296</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0.2712602009477009</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0.7096478174603175</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0.7306931643625192</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0.503327588636339</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0.5064425770308123</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>800</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>800</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>295</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>324</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>73</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>148</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>31</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>32</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>96</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>95</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>72</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>82</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>109</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>120</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>44</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>37</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>98</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>106</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>49</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>58</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>93</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>82</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>89</v>
-      </c>
       <c r="BX11" t="n">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="BY11" t="n">
-        <v>292</v>
+        <v>367</v>
       </c>
       <c r="BZ11" t="n">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="CA11" t="n">
-        <v>356.96</v>
+        <v>439.92</v>
       </c>
       <c r="CB11" t="n">
-        <v>363.8</v>
+        <v>457.08</v>
       </c>
       <c r="CC11" t="n">
-        <v>312.96</v>
+        <v>384.92</v>
       </c>
       <c r="CD11" t="n">
-        <v>326.8</v>
+        <v>410.08</v>
       </c>
       <c r="CE11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -3447,250 +3447,250 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8660020545810665</v>
+        <v>0.8697242685032329</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7818968656988038</v>
+        <v>0.825491524092395</v>
       </c>
       <c r="E12" t="n">
-        <v>99.63671534870114</v>
+        <v>99.24360803643565</v>
       </c>
       <c r="F12" t="n">
-        <v>90.74846903638849</v>
+        <v>96.02983966953852</v>
       </c>
       <c r="G12" t="n">
-        <v>8.88824631231267</v>
+        <v>3.213768366897134</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3481350850718811</v>
+        <v>0.3259439654934023</v>
       </c>
       <c r="I12" t="n">
-        <v>0.688429721101511</v>
+        <v>0.6790175864050184</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5282552151103551</v>
+        <v>0.5118315715307373</v>
       </c>
       <c r="K12" t="n">
-        <v>1625</v>
+        <v>2025</v>
       </c>
       <c r="L12" t="n">
-        <v>643</v>
+        <v>798</v>
       </c>
       <c r="M12" t="n">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="N12" t="n">
-        <v>295</v>
+        <v>367</v>
       </c>
       <c r="O12" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="P12" t="n">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="Q12" t="n">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="R12" t="n">
+        <v>298</v>
+      </c>
+      <c r="S12" t="n">
+        <v>116</v>
+      </c>
+      <c r="T12" t="n">
+        <v>272</v>
+      </c>
+      <c r="U12" t="n">
+        <v>150</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="W12" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>190</v>
+      </c>
+      <c r="Y12" t="n">
         <v>227</v>
       </c>
-      <c r="S12" t="n">
-        <v>99</v>
-      </c>
-      <c r="T12" t="n">
-        <v>225</v>
-      </c>
-      <c r="U12" t="n">
-        <v>121</v>
-      </c>
-      <c r="V12" t="n">
-        <v>8.875</v>
-      </c>
-      <c r="W12" t="n">
-        <v>15.375</v>
-      </c>
-      <c r="X12" t="n">
-        <v>155</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>180</v>
-      </c>
       <c r="Z12" t="n">
-        <v>577</v>
+        <v>762</v>
       </c>
       <c r="AA12" t="n">
-        <v>745.88</v>
+        <v>921.12</v>
       </c>
       <c r="AB12" t="n">
-        <v>646.88</v>
+        <v>805.12</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.8563340049712586</v>
+        <v>0.881593712203698</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.8756701041908743</v>
+        <v>0.857854824802768</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.8348638716336578</v>
+        <v>0.8758670835847994</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.7289298597639498</v>
+        <v>0.7751159645999904</v>
       </c>
       <c r="AI12" t="n">
-        <v>99.15281875664893</v>
+        <v>100.1656869006173</v>
       </c>
       <c r="AJ12" t="n">
-        <v>100.1206119407534</v>
+        <v>98.32152917225405</v>
       </c>
       <c r="AK12" t="n">
-        <v>97.01285950059994</v>
+        <v>100.9051963420746</v>
       </c>
       <c r="AL12" t="n">
-        <v>84.48407857217703</v>
+        <v>91.15448299700248</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.139959256048978</v>
+        <v>-0.7395094414573276</v>
       </c>
       <c r="AN12" t="n">
-        <v>15.63653336857636</v>
+        <v>7.167046175251595</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.3610133242486184</v>
+        <v>0.322143992732228</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.3352568458951438</v>
+        <v>0.3297439382545765</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.6737810283687944</v>
+        <v>0.6765248226950356</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.7030784138342278</v>
+        <v>0.6815103501150013</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.5260641038024405</v>
+        <v>0.5079480572355008</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5304463264182698</v>
+        <v>0.5157150858259738</v>
       </c>
       <c r="AU12" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="AV12" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AW12" t="n">
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="AX12" t="n">
-        <v>326</v>
+        <v>395</v>
       </c>
       <c r="AY12" t="n">
+        <v>93</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>97</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>174</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>193</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>39</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>38</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>143</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>87</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>153</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>145</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>56</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>60</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>128</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>144</v>
+      </c>
+      <c r="BO12" t="n">
         <v>74</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>140</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>155</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>31</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>33</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>118</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>110</v>
-      </c>
-      <c r="BG12" t="n">
+      <c r="BP12" t="n">
         <v>76</v>
       </c>
-      <c r="BH12" t="n">
-        <v>65</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>120</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>107</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>48</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>106</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>119</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>52</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>69</v>
-      </c>
       <c r="BQ12" t="n">
-        <v>6.75</v>
+        <v>6.8</v>
       </c>
       <c r="BR12" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BS12" t="n">
-        <v>15.25</v>
+        <v>15</v>
       </c>
       <c r="BT12" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="BU12" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="BV12" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="BW12" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="BX12" t="n">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="BY12" t="n">
-        <v>301</v>
+        <v>398</v>
       </c>
       <c r="BZ12" t="n">
-        <v>276</v>
+        <v>364</v>
       </c>
       <c r="CA12" t="n">
-        <v>371.8</v>
+        <v>459.32</v>
       </c>
       <c r="CB12" t="n">
-        <v>374.08</v>
+        <v>461.8</v>
       </c>
       <c r="CC12" t="n">
-        <v>320.8</v>
+        <v>403.32</v>
       </c>
       <c r="CD12" t="n">
-        <v>326.08</v>
+        <v>401.8</v>
       </c>
       <c r="CE12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -3705,250 +3705,250 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.714126809914949</v>
+        <v>0.7267636233007042</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7526827434797685</v>
+        <v>0.7667121314468052</v>
       </c>
       <c r="E13" t="n">
-        <v>82.0291531078868</v>
+        <v>82.47596636905148</v>
       </c>
       <c r="F13" t="n">
-        <v>87.27039109067353</v>
+        <v>88.60307569796973</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.241237982786732</v>
+        <v>-6.12710932891827</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3127448676839157</v>
+        <v>0.2924816084328468</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7047750440061036</v>
+        <v>0.7060237774086251</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5243390224335918</v>
+        <v>0.5150506683650334</v>
       </c>
       <c r="K13" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L13" t="n">
-        <v>517</v>
+        <v>648</v>
       </c>
       <c r="M13" t="n">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="N13" t="n">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="O13" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P13" t="n">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="Q13" t="n">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="R13" t="n">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="S13" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="T13" t="n">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="U13" t="n">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="V13" t="n">
-        <v>5.875</v>
+        <v>5.9</v>
       </c>
       <c r="W13" t="n">
-        <v>17.875</v>
+        <v>17.3</v>
       </c>
       <c r="X13" t="n">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y13" t="n">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="Z13" t="n">
-        <v>558</v>
+        <v>706</v>
       </c>
       <c r="AA13" t="n">
-        <v>719.9200000000001</v>
+        <v>888.1600000000001</v>
       </c>
       <c r="AB13" t="n">
-        <v>626.9200000000001</v>
+        <v>782.1600000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.7567977076250878</v>
+        <v>0.7728800265651865</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.6714559122048103</v>
+        <v>0.6806472200362217</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.7440357464756885</v>
+        <v>0.7425422886883497</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.7613297404838485</v>
+        <v>0.7908819742052606</v>
       </c>
       <c r="AI13" t="n">
-        <v>87.6732630866487</v>
+        <v>88.3664585705848</v>
       </c>
       <c r="AJ13" t="n">
-        <v>76.38504312912488</v>
+        <v>76.58547416751816</v>
       </c>
       <c r="AK13" t="n">
-        <v>85.64965109439083</v>
+        <v>85.04061494742714</v>
       </c>
       <c r="AL13" t="n">
-        <v>88.89113108695622</v>
+        <v>92.16553644851233</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.023611992257874</v>
+        <v>3.325843623157642</v>
       </c>
       <c r="AN13" t="n">
-        <v>-12.50608795783134</v>
+        <v>-15.58006228099418</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.3273459383753501</v>
+        <v>0.3178767507002801</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.2981437969924812</v>
+        <v>0.2670864661654135</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.7326747720364741</v>
+        <v>0.7320857635751252</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.676875315975733</v>
+        <v>0.679961791242125</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.5476551171775891</v>
+        <v>0.5478015130969099</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5010229276895943</v>
+        <v>0.4822998236331569</v>
       </c>
       <c r="AU13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AV13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AW13" t="n">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="AX13" t="n">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="AY13" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AZ13" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="BA13" t="n">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="BB13" t="n">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="BC13" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BD13" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BE13" t="n">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="BF13" t="n">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="BG13" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="BH13" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="BI13" t="n">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="BJ13" t="n">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="BK13" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="BL13" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="BM13" t="n">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="BN13" t="n">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="BO13" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="BP13" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="BQ13" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="BR13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BS13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BT13" t="n">
-        <v>18.25</v>
+        <v>16.6</v>
       </c>
       <c r="BU13" t="n">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="BV13" t="n">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="BW13" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="BX13" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="BY13" t="n">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="BZ13" t="n">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="CA13" t="n">
-        <v>362.04</v>
+        <v>448.04</v>
       </c>
       <c r="CB13" t="n">
-        <v>357.88</v>
+        <v>440.12</v>
       </c>
       <c r="CC13" t="n">
-        <v>313.04</v>
+        <v>392.04</v>
       </c>
       <c r="CD13" t="n">
-        <v>313.88</v>
+        <v>390.12</v>
       </c>
       <c r="CE13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -3963,250 +3963,250 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8749340491964991</v>
+        <v>0.8908563302662902</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7927595019091457</v>
+        <v>0.7668403907811504</v>
       </c>
       <c r="E14" t="n">
-        <v>104.0888300621939</v>
+        <v>105.2640465058955</v>
       </c>
       <c r="F14" t="n">
-        <v>89.65216731394537</v>
+        <v>86.43046946443323</v>
       </c>
       <c r="G14" t="n">
-        <v>14.43666274824852</v>
+        <v>18.83357704146223</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3912266120754013</v>
+        <v>0.3877505204295518</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7266890192990892</v>
+        <v>0.7381181327325045</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5522506321126236</v>
+        <v>0.5613772252668184</v>
       </c>
       <c r="K14" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L14" t="n">
-        <v>660</v>
+        <v>826</v>
       </c>
       <c r="M14" t="n">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="N14" t="n">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="O14" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="P14" t="n">
+        <v>254</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>182</v>
+      </c>
+      <c r="R14" t="n">
+        <v>279</v>
+      </c>
+      <c r="S14" t="n">
+        <v>145</v>
+      </c>
+      <c r="T14" t="n">
+        <v>270</v>
+      </c>
+      <c r="U14" t="n">
+        <v>161</v>
+      </c>
+      <c r="V14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="W14" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>215</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>231</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>665</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>930.76</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>785.76</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.9037517235873372</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.8607670791838472</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.7833808799131933</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.7282459161397169</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>107.1104102137476</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>100.9558645209071</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>88.58403866987427</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>81.40547465173749</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>18.52637154387336</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>19.5503898691696</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.3915280990938886</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.378936170212766</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.7393027567499796</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.7353540100250626</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.5642317199624977</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.554716737643567</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>600</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>587</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>239</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>128</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>291</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>125</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>64</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>22</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>177</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>77</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>139</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>43</v>
+      </c>
+      <c r="BI14" t="n">
         <v>213</v>
       </c>
-      <c r="Q14" t="n">
-        <v>151</v>
-      </c>
-      <c r="R14" t="n">
-        <v>229</v>
-      </c>
-      <c r="S14" t="n">
-        <v>122</v>
-      </c>
-      <c r="T14" t="n">
-        <v>207</v>
-      </c>
-      <c r="U14" t="n">
-        <v>117</v>
-      </c>
-      <c r="V14" t="n">
-        <v>10.125</v>
-      </c>
-      <c r="W14" t="n">
-        <v>14.125</v>
-      </c>
-      <c r="X14" t="n">
-        <v>179</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>189</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>553</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>756.76</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>634.76</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.9028618593367419</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0.7911506187757709</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0.7943756180050809</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0.7879111536213401</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>107.4182856002494</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>94.10046344802733</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>90.45017872800476</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>87.2581330717672</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>16.96810687224466</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>6.842330376260099</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0.4055007309941521</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0.348404255319149</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0.7196627400178333</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0.7477678571428572</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0.5595049078574819</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0.5304878048780488</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>1200</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>400</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>507</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>153</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>108</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>248</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>82</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>55</v>
-      </c>
-      <c r="BD14" t="n">
+      <c r="BJ14" t="n">
+        <v>66</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>104</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>193</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>77</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>110</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>8.857142857142858</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>12.85714285714286</v>
+      </c>
+      <c r="BT14" t="n">
         <v>16</v>
       </c>
-      <c r="BE14" t="n">
-        <v>155</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>58</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>25</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>188</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>92</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>30</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>157</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>50</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>92</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>25</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>9.333333333333334</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>13</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>17.5</v>
-      </c>
       <c r="BU14" t="n">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="BV14" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BW14" t="n">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="BX14" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="BY14" t="n">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="BZ14" t="n">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="CA14" t="n">
-        <v>563.72</v>
+        <v>651.72</v>
       </c>
       <c r="CB14" t="n">
-        <v>193.04</v>
+        <v>279.04</v>
       </c>
       <c r="CC14" t="n">
-        <v>471.72</v>
+        <v>547.72</v>
       </c>
       <c r="CD14" t="n">
-        <v>163.04</v>
+        <v>238.04</v>
       </c>
       <c r="CE14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CF14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -4221,250 +4221,250 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8574873873463329</v>
+        <v>0.8775691639563205</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8645972359832452</v>
+        <v>0.8551810836133589</v>
       </c>
       <c r="E15" t="n">
-        <v>99.60595676917229</v>
+        <v>101.220134440948</v>
       </c>
       <c r="F15" t="n">
-        <v>99.18794057151455</v>
+        <v>97.81545873727507</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4180161976577539</v>
+        <v>3.404675703672949</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3642224652651659</v>
+        <v>0.353460643118333</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6770882083382084</v>
+        <v>0.6825135899263806</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5188314878908987</v>
+        <v>0.5174367318146953</v>
       </c>
       <c r="K15" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L15" t="n">
-        <v>694</v>
+        <v>885</v>
       </c>
       <c r="M15" t="n">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="N15" t="n">
-        <v>384</v>
+        <v>483</v>
       </c>
       <c r="O15" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="P15" t="n">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="Q15" t="n">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="R15" t="n">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="S15" t="n">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="T15" t="n">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="U15" t="n">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="V15" t="n">
-        <v>8.375</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W15" t="n">
-        <v>17.125</v>
+        <v>16.8</v>
       </c>
       <c r="X15" t="n">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="Y15" t="n">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="Z15" t="n">
-        <v>680</v>
+        <v>839</v>
       </c>
       <c r="AA15" t="n">
-        <v>811.92</v>
+        <v>1010.92</v>
       </c>
       <c r="AB15" t="n">
-        <v>698.92</v>
+        <v>875.92</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.8638520127148013</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.8912863151978394</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.8704189991222547</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.839943168104463</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>99.82262255098064</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>102.6176463309154</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>99.40567229161698</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>96.22524518293314</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.4169502593636725</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6.392401147982226</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.3660170215824014</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.3409042646542647</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.6815675838931653</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.6834595959595959</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.5222409167171229</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.5126325469122677</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>453</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>432</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>128</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>119</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>232</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD15" t="n">
         <v>36</v>
       </c>
-      <c r="AE15" t="n">
-        <v>0.819398349226835</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.8955764254658307</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0.8586423056038492</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0.8705521663626412</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>95.58039365809557</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>103.631519880249</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>98.08061977628593</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>100.2952613667432</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>-2.500226118190352</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.33625851350586</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0.3766389240368253</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0.3518060064935065</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0.6717269217269217</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0.6824494949494949</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0.5164375095327673</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0.5212254662490301</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>800</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>800</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>347</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>347</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>95</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>202</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>182</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>20</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>28</v>
-      </c>
       <c r="BE15" t="n">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="BF15" t="n">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="BG15" t="n">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="BH15" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="BI15" t="n">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="BJ15" t="n">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="BK15" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="BL15" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="BM15" t="n">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="BN15" t="n">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="BO15" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="BP15" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="BQ15" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BR15" t="n">
-        <v>7.75</v>
+        <v>9.4</v>
       </c>
       <c r="BS15" t="n">
-        <v>19.25</v>
+        <v>18.6</v>
       </c>
       <c r="BT15" t="n">
         <v>15</v>
       </c>
       <c r="BU15" t="n">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="BV15" t="n">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="BW15" t="n">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="BX15" t="n">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="BY15" t="n">
-        <v>346</v>
+        <v>435</v>
       </c>
       <c r="BZ15" t="n">
-        <v>334</v>
+        <v>404</v>
       </c>
       <c r="CA15" t="n">
-        <v>423.68</v>
+        <v>525.4400000000001</v>
       </c>
       <c r="CB15" t="n">
-        <v>388.24</v>
+        <v>485.48</v>
       </c>
       <c r="CC15" t="n">
-        <v>363.68</v>
+        <v>454.44</v>
       </c>
       <c r="CD15" t="n">
-        <v>335.24</v>
+        <v>421.48</v>
       </c>
       <c r="CE15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/3FEB_25_26/teams_25_26_3FEB.xlsx
+++ b/data/3FEB_25_26/teams_25_26_3FEB.xlsx
@@ -867,250 +867,250 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7932970823224894</v>
+        <v>0.8156263622427273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8693574816432452</v>
+        <v>0.8749651603026197</v>
       </c>
       <c r="E2" t="n">
-        <v>89.0610599487914</v>
+        <v>90.58906306785205</v>
       </c>
       <c r="F2" t="n">
-        <v>100.7378434452753</v>
+        <v>102.0547279129863</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.67678349648392</v>
+        <v>-11.46566484513428</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2626554671475524</v>
+        <v>0.2431851115118492</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6279429580851046</v>
+        <v>0.6211768025102635</v>
       </c>
       <c r="J2" t="n">
-        <v>0.437107625332916</v>
+        <v>0.4295431602372315</v>
       </c>
       <c r="K2" t="n">
-        <v>2100</v>
+        <v>2550</v>
       </c>
       <c r="L2" t="n">
-        <v>777</v>
+        <v>944</v>
       </c>
       <c r="M2" t="n">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="N2" t="n">
-        <v>443</v>
+        <v>525</v>
       </c>
       <c r="O2" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="P2" t="n">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="Q2" t="n">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="R2" t="n">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="S2" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="T2" t="n">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="U2" t="n">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>17.2</v>
+        <v>16.75</v>
       </c>
       <c r="X2" t="n">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="Y2" t="n">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="Z2" t="n">
-        <v>884</v>
+        <v>1070</v>
       </c>
       <c r="AA2" t="n">
-        <v>982.76</v>
+        <v>1162</v>
       </c>
       <c r="AB2" t="n">
-        <v>871.76</v>
+        <v>1041</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7254139043206014</v>
+        <v>0.7698555022777498</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.8611802603243774</v>
+        <v>0.8613972222077048</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.8591193241912116</v>
+        <v>0.8496918312570302</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.879595639095279</v>
+        <v>0.9002384893482094</v>
       </c>
       <c r="AI2" t="n">
-        <v>82.30752689688461</v>
+        <v>85.8447641315945</v>
       </c>
       <c r="AJ2" t="n">
-        <v>95.81459300069818</v>
+        <v>95.33336200410962</v>
       </c>
       <c r="AK2" t="n">
-        <v>97.34924332705886</v>
+        <v>97.12354367538417</v>
       </c>
       <c r="AL2" t="n">
-        <v>104.1264435634918</v>
+        <v>106.9859121505885</v>
       </c>
       <c r="AM2" t="n">
-        <v>-15.04171643017423</v>
+        <v>-11.27877954378967</v>
       </c>
       <c r="AN2" t="n">
-        <v>-8.311850562793623</v>
+        <v>-11.65255014647889</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.2831950566773088</v>
+        <v>0.2568292138977573</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.242115877617796</v>
+        <v>0.2295410091259411</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6650867346938776</v>
+        <v>0.6535297257200753</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.5907991814763317</v>
+        <v>0.5888238793004518</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.4562249069345843</v>
+        <v>0.4476979709686937</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.4179903437312475</v>
+        <v>0.4113883495057694</v>
       </c>
       <c r="AU2" t="n">
-        <v>1025</v>
+        <v>1275</v>
       </c>
       <c r="AV2" t="n">
-        <v>1075</v>
+        <v>1275</v>
       </c>
       <c r="AW2" t="n">
-        <v>349</v>
+        <v>444</v>
       </c>
       <c r="AX2" t="n">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="AY2" t="n">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="AZ2" t="n">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="BA2" t="n">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="BB2" t="n">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="BC2" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BD2" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="BE2" t="n">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="BF2" t="n">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="BG2" t="n">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="BH2" t="n">
+        <v>88</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>134</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>141</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>62</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>59</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>144</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>142</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>87</v>
+      </c>
+      <c r="BP2" t="n">
         <v>80</v>
       </c>
-      <c r="BI2" t="n">
-        <v>105</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>124</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>58</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>53</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>116</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>120</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>70</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>68</v>
-      </c>
       <c r="BQ2" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="BR2" t="n">
-        <v>10.4</v>
+        <v>9.5</v>
       </c>
       <c r="BS2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BT2" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="BU2" t="n">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="BV2" t="n">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="BW2" t="n">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="BX2" t="n">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="BY2" t="n">
-        <v>409</v>
+        <v>502</v>
       </c>
       <c r="BZ2" t="n">
-        <v>475</v>
+        <v>568</v>
       </c>
       <c r="CA2" t="n">
-        <v>481.2</v>
+        <v>576.96</v>
       </c>
       <c r="CB2" t="n">
-        <v>501.56</v>
+        <v>585.04</v>
       </c>
       <c r="CC2" t="n">
-        <v>423.2</v>
+        <v>514.96</v>
       </c>
       <c r="CD2" t="n">
-        <v>448.56</v>
+        <v>526.04</v>
       </c>
       <c r="CE2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1125,250 +1125,250 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7634732449040145</v>
+        <v>0.7539553353120664</v>
       </c>
       <c r="D3" t="n">
-        <v>0.946915239219854</v>
+        <v>0.9291708484060659</v>
       </c>
       <c r="E3" t="n">
-        <v>86.51409865300199</v>
+        <v>85.3908049823214</v>
       </c>
       <c r="F3" t="n">
-        <v>108.5165135380053</v>
+        <v>106.3449632346667</v>
       </c>
       <c r="G3" t="n">
-        <v>-22.00241488500335</v>
+        <v>-20.95415825234537</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2663142257631372</v>
+        <v>0.2623058618048722</v>
       </c>
       <c r="I3" t="n">
-        <v>0.669946907043891</v>
+        <v>0.6713803051048359</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4573015030747458</v>
+        <v>0.4543650027952234</v>
       </c>
       <c r="K3" t="n">
-        <v>2075</v>
+        <v>2275</v>
       </c>
       <c r="L3" t="n">
-        <v>739</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="N3" t="n">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="O3" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="Q3" t="n">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="R3" t="n">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="S3" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="T3" t="n">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="U3" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="V3" t="n">
-        <v>8</v>
+        <v>7.818181818181818</v>
       </c>
       <c r="W3" t="n">
-        <v>16.7</v>
+        <v>16.45454545454545</v>
       </c>
       <c r="X3" t="n">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="Y3" t="n">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="Z3" t="n">
-        <v>924</v>
+        <v>998</v>
       </c>
       <c r="AA3" t="n">
-        <v>960.04</v>
+        <v>1049.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>848.04</v>
+        <v>927.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AE3" t="n">
         <v>0.7811516219669935</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.7457948678410355</v>
+        <v>0.7312917630996273</v>
       </c>
       <c r="AG3" t="n">
         <v>0.9267826662210105</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.9670478122186976</v>
+        <v>0.9311610002269454</v>
       </c>
       <c r="AI3" t="n">
         <v>87.90812726991774</v>
       </c>
       <c r="AJ3" t="n">
-        <v>85.12007003608628</v>
+        <v>83.29303640932444</v>
       </c>
       <c r="AK3" t="n">
         <v>107.2042868286553</v>
       </c>
       <c r="AL3" t="n">
-        <v>109.8287402473554</v>
+        <v>105.6288602396763</v>
       </c>
       <c r="AM3" t="n">
         <v>-19.29615955873758</v>
       </c>
       <c r="AN3" t="n">
-        <v>-24.70867021126911</v>
+        <v>-22.33582383035185</v>
       </c>
       <c r="AO3" t="n">
         <v>0.26247227997228</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.2701561715539945</v>
+        <v>0.262167179998699</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.6645376247997041</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.6753561892880778</v>
+        <v>0.6770825386924458</v>
       </c>
       <c r="AS3" t="n">
         <v>0.4601050915830838</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.4544979145664077</v>
+        <v>0.4495815954720064</v>
       </c>
       <c r="AU3" t="n">
         <v>1075</v>
       </c>
       <c r="AV3" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="AW3" t="n">
         <v>391</v>
       </c>
       <c r="AX3" t="n">
-        <v>348</v>
+        <v>407</v>
       </c>
       <c r="AY3" t="n">
         <v>104</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="BA3" t="n">
         <v>218</v>
       </c>
       <c r="BB3" t="n">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="BC3" t="n">
         <v>28</v>
       </c>
       <c r="BD3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BE3" t="n">
         <v>111</v>
       </c>
       <c r="BF3" t="n">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="BG3" t="n">
         <v>99</v>
       </c>
       <c r="BH3" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="BI3" t="n">
         <v>160</v>
       </c>
       <c r="BJ3" t="n">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="BK3" t="n">
         <v>55</v>
       </c>
       <c r="BL3" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="BM3" t="n">
         <v>138</v>
       </c>
       <c r="BN3" t="n">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="BO3" t="n">
         <v>59</v>
       </c>
       <c r="BP3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BQ3" t="n">
         <v>7.8</v>
       </c>
       <c r="BR3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="BS3" t="n">
         <v>18.8</v>
       </c>
       <c r="BT3" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="BU3" t="n">
         <v>131</v>
       </c>
       <c r="BV3" t="n">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="BW3" t="n">
         <v>132</v>
       </c>
       <c r="BX3" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="BY3" t="n">
         <v>464</v>
       </c>
       <c r="BZ3" t="n">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="CA3" t="n">
         <v>493.4</v>
       </c>
       <c r="CB3" t="n">
-        <v>466.64</v>
+        <v>556.2</v>
       </c>
       <c r="CC3" t="n">
         <v>438.4</v>
       </c>
       <c r="CD3" t="n">
-        <v>409.64</v>
+        <v>489.2</v>
       </c>
       <c r="CE3" t="n">
         <v>5</v>
       </c>
       <c r="CF3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1383,247 +1383,247 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8327069294245133</v>
+        <v>0.8478778306630362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8393293050409063</v>
+        <v>0.8463176122529731</v>
       </c>
       <c r="E4" t="n">
-        <v>92.36380851526111</v>
+        <v>94.07729417294519</v>
       </c>
       <c r="F4" t="n">
-        <v>96.84108713265383</v>
+        <v>96.60071985827882</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.477278617392719</v>
+        <v>-2.523425685333622</v>
       </c>
       <c r="H4" t="n">
-        <v>0.253168875043875</v>
+        <v>0.2569892428022172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6719286197966671</v>
+        <v>0.6933991631137638</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4716815858969842</v>
+        <v>0.4831801902110212</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L4" t="n">
-        <v>724</v>
+        <v>891</v>
       </c>
       <c r="M4" t="n">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="N4" t="n">
-        <v>345</v>
+        <v>413</v>
       </c>
       <c r="O4" t="n">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="P4" t="n">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="Q4" t="n">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="R4" t="n">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="S4" t="n">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="T4" t="n">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="U4" t="n">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="V4" t="n">
-        <v>7.5</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="W4" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="X4" t="n">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="Y4" t="n">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="Z4" t="n">
-        <v>773</v>
+        <v>922</v>
       </c>
       <c r="AA4" t="n">
-        <v>872.12</v>
+        <v>1052.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>786.12</v>
+        <v>948.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.8355395230290805</v>
+        <v>0.8607374698366721</v>
       </c>
       <c r="AF4" t="n">
         <v>0.8298743358199461</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.8831655765918413</v>
+        <v>0.8826208827979742</v>
       </c>
       <c r="AH4" t="n">
         <v>0.7954930334899715</v>
       </c>
       <c r="AI4" t="n">
-        <v>94.03487337482105</v>
+        <v>96.49483025669092</v>
       </c>
       <c r="AJ4" t="n">
         <v>90.69274365570116</v>
       </c>
       <c r="AK4" t="n">
-        <v>102.5584719732926</v>
+        <v>100.5128752627529</v>
       </c>
       <c r="AL4" t="n">
         <v>91.12370229201505</v>
       </c>
       <c r="AM4" t="n">
-        <v>-8.523598598471553</v>
+        <v>-4.018045006062005</v>
       </c>
       <c r="AN4" t="n">
         <v>-0.4309586363138863</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.2927598865098865</v>
+        <v>0.2879973708196126</v>
       </c>
       <c r="AP4" t="n">
         <v>0.2135778635778636</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.6662732185072611</v>
+        <v>0.7046956931335432</v>
       </c>
       <c r="AR4" t="n">
         <v>0.6775840210860731</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.4933223818539555</v>
+        <v>0.5068511904045986</v>
       </c>
       <c r="AT4" t="n">
         <v>0.4500407899400128</v>
       </c>
       <c r="AU4" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="AV4" t="n">
         <v>1000</v>
       </c>
       <c r="AW4" t="n">
-        <v>366</v>
+        <v>533</v>
       </c>
       <c r="AX4" t="n">
         <v>358</v>
       </c>
       <c r="AY4" t="n">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AZ4" t="n">
         <v>83</v>
       </c>
       <c r="BA4" t="n">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="BB4" t="n">
         <v>187</v>
       </c>
       <c r="BC4" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="BD4" t="n">
         <v>39</v>
       </c>
       <c r="BE4" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="BF4" t="n">
         <v>132</v>
       </c>
       <c r="BG4" t="n">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="BH4" t="n">
         <v>75</v>
       </c>
       <c r="BI4" t="n">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="BJ4" t="n">
         <v>119</v>
       </c>
       <c r="BK4" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="BL4" t="n">
         <v>37</v>
       </c>
       <c r="BM4" t="n">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="BN4" t="n">
         <v>125</v>
       </c>
       <c r="BO4" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="BP4" t="n">
         <v>68</v>
       </c>
       <c r="BQ4" t="n">
-        <v>6.2</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="BR4" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="BS4" t="n">
-        <v>19.6</v>
+        <v>19.28571428571428</v>
       </c>
       <c r="BT4" t="n">
         <v>12.6</v>
       </c>
       <c r="BU4" t="n">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="BV4" t="n">
         <v>121</v>
       </c>
       <c r="BW4" t="n">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="BX4" t="n">
         <v>113</v>
       </c>
       <c r="BY4" t="n">
-        <v>411</v>
+        <v>560</v>
       </c>
       <c r="BZ4" t="n">
         <v>362</v>
       </c>
       <c r="CA4" t="n">
-        <v>437.76</v>
+        <v>617.84</v>
       </c>
       <c r="CB4" t="n">
         <v>434.36</v>
       </c>
       <c r="CC4" t="n">
-        <v>388.76</v>
+        <v>550.84</v>
       </c>
       <c r="CD4" t="n">
         <v>397.36</v>
       </c>
       <c r="CE4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CF4" t="n">
         <v>5</v>
@@ -1641,250 +1641,250 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7776569352046142</v>
+        <v>0.802580357443921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8453817442273118</v>
+        <v>0.8685992665702403</v>
       </c>
       <c r="E5" t="n">
-        <v>87.35089340996731</v>
+        <v>89.75471981644671</v>
       </c>
       <c r="F5" t="n">
-        <v>96.99357725993534</v>
+        <v>98.60628751359741</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.642683849968014</v>
+        <v>-8.851567697150696</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2620290030536899</v>
+        <v>0.2628750464043907</v>
       </c>
       <c r="I5" t="n">
-        <v>0.694852434450085</v>
+        <v>0.7098371696056974</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4768654496788293</v>
+        <v>0.4863408472257029</v>
       </c>
       <c r="K5" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L5" t="n">
-        <v>691</v>
+        <v>837</v>
       </c>
       <c r="M5" t="n">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="N5" t="n">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="O5" t="n">
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>158</v>
+      </c>
+      <c r="R5" t="n">
+        <v>258</v>
+      </c>
+      <c r="S5" t="n">
+        <v>111</v>
+      </c>
+      <c r="T5" t="n">
+        <v>300</v>
+      </c>
+      <c r="U5" t="n">
+        <v>160</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="W5" t="n">
+        <v>14.58333333333333</v>
+      </c>
+      <c r="X5" t="n">
+        <v>265</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>242</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>910</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1046.52</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>935.52</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>78</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.8664970326665417</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.7386636822213003</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.8962671042737035</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.8409314288667772</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>97.46796859309624</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>82.04147103979717</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>101.0221044872139</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>96.19047053998094</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-3.55413589411763</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-14.14899950018376</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.2971542977656179</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.2285957950431635</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.7062208425008275</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.7134534967105673</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.5015752591880411</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.4711064352633647</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>456</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>381</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>131</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>99</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>257</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>221</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>38</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>35</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>129</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>80</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>78</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>123</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>135</v>
+      </c>
+      <c r="BK5" t="n">
         <v>59</v>
       </c>
-      <c r="P5" t="n">
-        <v>230</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>132</v>
-      </c>
-      <c r="R5" t="n">
-        <v>221</v>
-      </c>
-      <c r="S5" t="n">
-        <v>97</v>
-      </c>
-      <c r="T5" t="n">
-        <v>253</v>
-      </c>
-      <c r="U5" t="n">
-        <v>134</v>
-      </c>
-      <c r="V5" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="W5" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>222</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>198</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>749</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>888.24</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>791.24</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.8145245593448525</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.7407893110643757</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.8534104796968439</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.8373530087577798</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>92.18935274451731</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>82.51243407541732</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>97.51962883293251</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>96.46752568693816</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>-5.330276088415197</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>-13.95509161152083</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.2865851573187414</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.2374728487886383</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0.6819477696216827</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0.7077570992784873</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0.4753596987807514</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0.4783712005769071</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>369</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>322</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>113</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>78</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>229</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>181</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>26</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>33</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>103</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>127</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>65</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>102</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>119</v>
-      </c>
-      <c r="BK5" t="n">
+      <c r="BL5" t="n">
         <v>52</v>
       </c>
-      <c r="BL5" t="n">
-        <v>45</v>
-      </c>
       <c r="BM5" t="n">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="BN5" t="n">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="BO5" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="BP5" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="BQ5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BR5" t="n">
-        <v>7.8</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="BS5" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="BT5" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="BU5" t="n">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="BV5" t="n">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="BW5" t="n">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="BX5" t="n">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="BY5" t="n">
-        <v>385</v>
+        <v>473</v>
       </c>
       <c r="BZ5" t="n">
-        <v>364</v>
+        <v>437</v>
       </c>
       <c r="CA5" t="n">
-        <v>452.88</v>
+        <v>530.12</v>
       </c>
       <c r="CB5" t="n">
-        <v>435.36</v>
+        <v>516.4</v>
       </c>
       <c r="CC5" t="n">
-        <v>400.88</v>
+        <v>471.12</v>
       </c>
       <c r="CD5" t="n">
-        <v>390.36</v>
+        <v>464.4</v>
       </c>
       <c r="CE5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1899,250 +1899,250 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9115239453934965</v>
+        <v>0.9084357718410944</v>
       </c>
       <c r="D6" t="n">
-        <v>0.874181870840234</v>
+        <v>0.8767026841345745</v>
       </c>
       <c r="E6" t="n">
-        <v>105.1202861100729</v>
+        <v>105.2361032786829</v>
       </c>
       <c r="F6" t="n">
-        <v>99.25047992962551</v>
+        <v>99.25037434737766</v>
       </c>
       <c r="G6" t="n">
-        <v>5.869806180447329</v>
+        <v>5.985728931305213</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3382826628647062</v>
+        <v>0.3410640124262415</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6928287562979365</v>
+        <v>0.6947815393391895</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5148226978768078</v>
+        <v>0.5150087508871758</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L6" t="n">
-        <v>808</v>
+        <v>977</v>
       </c>
       <c r="M6" t="n">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="N6" t="n">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="O6" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="P6" t="n">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="Q6" t="n">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="R6" t="n">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="S6" t="n">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="T6" t="n">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="U6" t="n">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="V6" t="n">
-        <v>8.5</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="W6" t="n">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="X6" t="n">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="Y6" t="n">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="Z6" t="n">
-        <v>768</v>
+        <v>937</v>
       </c>
       <c r="AA6" t="n">
-        <v>886.5599999999999</v>
+        <v>1076.36</v>
       </c>
       <c r="AB6" t="n">
-        <v>767.5599999999999</v>
+        <v>928.36</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.866781040007789</v>
+        <v>0.889559656775301</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9562668507792041</v>
+        <v>0.9273118869068876</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.8061831203774001</v>
+        <v>0.8155662722518904</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.9421806213030678</v>
+        <v>0.9378390960172586</v>
       </c>
       <c r="AI6" t="n">
-        <v>101.7944157129973</v>
+        <v>105.0425556085097</v>
       </c>
       <c r="AJ6" t="n">
-        <v>108.4461565071484</v>
+        <v>105.429650948856</v>
       </c>
       <c r="AK6" t="n">
-        <v>91.44507770293151</v>
+        <v>91.69209925597073</v>
       </c>
       <c r="AL6" t="n">
-        <v>107.0558821563195</v>
+        <v>106.8086494387846</v>
       </c>
       <c r="AM6" t="n">
-        <v>10.34933801006574</v>
+        <v>13.35045635253899</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.390274350828919</v>
+        <v>-1.378998489928559</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.3588972585025216</v>
+        <v>0.3692564873485926</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.3176680672268907</v>
+        <v>0.3128715375038905</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.7122461935227893</v>
+        <v>0.7324273834912133</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.6734113190730838</v>
+        <v>0.6571356951871657</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5360012335432769</v>
+        <v>0.550271298223001</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.4936441622103387</v>
+        <v>0.4797462035513506</v>
       </c>
       <c r="AU6" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="AV6" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="AW6" t="n">
-        <v>386</v>
+        <v>479</v>
       </c>
       <c r="AX6" t="n">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="AY6" t="n">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="AZ6" t="n">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="BA6" t="n">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="BB6" t="n">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="BC6" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="BD6" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="BE6" t="n">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="BF6" t="n">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="BG6" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="BH6" t="n">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="BI6" t="n">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="BJ6" t="n">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="BK6" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="BL6" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="BM6" t="n">
+        <v>160</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>74</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>95</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BV6" t="n">
         <v>130</v>
       </c>
-      <c r="BN6" t="n">
-        <v>107</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>57</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>78</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>106</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>105</v>
-      </c>
       <c r="BW6" t="n">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="BX6" t="n">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="BY6" t="n">
-        <v>353</v>
+        <v>425</v>
       </c>
       <c r="BZ6" t="n">
-        <v>415</v>
+        <v>512</v>
       </c>
       <c r="CA6" t="n">
-        <v>444.92</v>
+        <v>537.6</v>
       </c>
       <c r="CB6" t="n">
-        <v>441.64</v>
+        <v>538.76</v>
       </c>
       <c r="CC6" t="n">
-        <v>377.92</v>
+        <v>454.6</v>
       </c>
       <c r="CD6" t="n">
-        <v>389.64</v>
+        <v>473.76</v>
       </c>
       <c r="CE6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2157,247 +2157,247 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8863938423773335</v>
+        <v>0.8917168194316986</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7014682196939999</v>
+        <v>0.7191905945063165</v>
       </c>
       <c r="E7" t="n">
-        <v>103.6906537618952</v>
+        <v>103.8379902663916</v>
       </c>
       <c r="F7" t="n">
-        <v>80.79087297489562</v>
+        <v>82.39790918943166</v>
       </c>
       <c r="G7" t="n">
-        <v>22.89978078699957</v>
+        <v>21.4400810769599</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3681424216027874</v>
+        <v>0.3592449532998314</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6966081838140662</v>
+        <v>0.6986210761946056</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5342416634356172</v>
+        <v>0.5291525003564899</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L7" t="n">
-        <v>797</v>
+        <v>889</v>
       </c>
       <c r="M7" t="n">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="N7" t="n">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="O7" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="P7" t="n">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="Q7" t="n">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="R7" t="n">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="S7" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="T7" t="n">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="U7" t="n">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="V7" t="n">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="W7" t="n">
-        <v>12.5</v>
+        <v>12.63636363636364</v>
       </c>
       <c r="X7" t="n">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="Y7" t="n">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Z7" t="n">
-        <v>615</v>
+        <v>705</v>
       </c>
       <c r="AA7" t="n">
-        <v>901.36</v>
+        <v>998.72</v>
       </c>
       <c r="AB7" t="n">
-        <v>768.36</v>
+        <v>855.72</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.9000984655457801</v>
+        <v>0.9075731529507083</v>
       </c>
       <c r="AF7" t="n">
         <v>0.8726892192088869</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.699781128095848</v>
+        <v>0.7325533305181203</v>
       </c>
       <c r="AH7" t="n">
         <v>0.7031553112921519</v>
       </c>
       <c r="AI7" t="n">
-        <v>104.0778867671591</v>
+        <v>104.2834648578585</v>
       </c>
       <c r="AJ7" t="n">
         <v>103.3034207566313</v>
       </c>
       <c r="AK7" t="n">
-        <v>77.86274889719149</v>
+        <v>81.29700263679159</v>
       </c>
       <c r="AL7" t="n">
         <v>83.71899705259975</v>
       </c>
       <c r="AM7" t="n">
-        <v>26.21513786996763</v>
+        <v>22.98646222106689</v>
       </c>
       <c r="AN7" t="n">
         <v>19.58442370403152</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.3434277003484321</v>
+        <v>0.3312347953354051</v>
       </c>
       <c r="AP7" t="n">
         <v>0.3928571428571428</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.7461152882205513</v>
+        <v>0.7415544068504595</v>
       </c>
       <c r="AR7" t="n">
         <v>0.6471010794075809</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5392915908160817</v>
+        <v>0.5291198039409377</v>
       </c>
       <c r="AT7" t="n">
         <v>0.5291917360551526</v>
       </c>
       <c r="AU7" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="AV7" t="n">
         <v>1000</v>
       </c>
       <c r="AW7" t="n">
-        <v>402</v>
+        <v>494</v>
       </c>
       <c r="AX7" t="n">
         <v>395</v>
       </c>
       <c r="AY7" t="n">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AZ7" t="n">
         <v>88</v>
       </c>
       <c r="BA7" t="n">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="BB7" t="n">
         <v>187</v>
       </c>
       <c r="BC7" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="BD7" t="n">
         <v>44</v>
       </c>
       <c r="BE7" t="n">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="BF7" t="n">
         <v>140</v>
       </c>
       <c r="BG7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BH7" t="n">
         <v>87</v>
       </c>
       <c r="BI7" t="n">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="BJ7" t="n">
         <v>142</v>
       </c>
       <c r="BK7" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="BL7" t="n">
         <v>71</v>
       </c>
       <c r="BM7" t="n">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="BN7" t="n">
         <v>130</v>
       </c>
       <c r="BO7" t="n">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="BP7" t="n">
         <v>76</v>
       </c>
       <c r="BQ7" t="n">
-        <v>12</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="BR7" t="n">
         <v>9.4</v>
       </c>
       <c r="BS7" t="n">
-        <v>12.4</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="BT7" t="n">
         <v>12.6</v>
       </c>
       <c r="BU7" t="n">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="BV7" t="n">
         <v>124</v>
       </c>
       <c r="BW7" t="n">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="BX7" t="n">
         <v>122</v>
       </c>
       <c r="BY7" t="n">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="BZ7" t="n">
         <v>316</v>
       </c>
       <c r="CA7" t="n">
-        <v>448.88</v>
+        <v>546.24</v>
       </c>
       <c r="CB7" t="n">
         <v>452.48</v>
       </c>
       <c r="CC7" t="n">
-        <v>386.88</v>
+        <v>474.24</v>
       </c>
       <c r="CD7" t="n">
         <v>381.48</v>
       </c>
       <c r="CE7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF7" t="n">
         <v>5</v>
@@ -2415,250 +2415,250 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8951792677170133</v>
+        <v>0.9176421763897329</v>
       </c>
       <c r="D8" t="n">
-        <v>0.867303486777071</v>
+        <v>0.8736703694269066</v>
       </c>
       <c r="E8" t="n">
-        <v>104.623701522886</v>
+        <v>105.7545839569875</v>
       </c>
       <c r="F8" t="n">
-        <v>98.73562781659976</v>
+        <v>98.82239144146821</v>
       </c>
       <c r="G8" t="n">
-        <v>5.888073706286256</v>
+        <v>6.932192515519268</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3428198020269632</v>
+        <v>0.322058829731464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.670551449095804</v>
+        <v>0.6853247369916012</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4957166627871378</v>
+        <v>0.4950864663011095</v>
       </c>
       <c r="K8" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L8" t="n">
-        <v>826</v>
+        <v>1016</v>
       </c>
       <c r="M8" t="n">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="N8" t="n">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="O8" t="n">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="P8" t="n">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="Q8" t="n">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="R8" t="n">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="S8" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="T8" t="n">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="U8" t="n">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="V8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="W8" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="X8" t="n">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="Y8" t="n">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="Z8" t="n">
-        <v>776</v>
+        <v>945</v>
       </c>
       <c r="AA8" t="n">
-        <v>922.1600000000001</v>
+        <v>1106.68</v>
       </c>
       <c r="AB8" t="n">
-        <v>789.1600000000001</v>
+        <v>959.6800000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="n">
         <v>0.9548191874948161</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.8696193020979548</v>
+        <v>0.9052498393547049</v>
       </c>
       <c r="AG8" t="n">
         <v>0.8629031330216382</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.8691893526722565</v>
+        <v>0.8772594482286628</v>
       </c>
       <c r="AI8" t="n">
         <v>113.2411062958905</v>
       </c>
       <c r="AJ8" t="n">
-        <v>100.9305280487413</v>
+        <v>103.2590765106865</v>
       </c>
       <c r="AK8" t="n">
         <v>96.50218702712988</v>
       </c>
       <c r="AL8" t="n">
-        <v>99.69281672637258</v>
+        <v>99.59579291291432</v>
       </c>
       <c r="AM8" t="n">
         <v>16.73891926876061</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.237711322368674</v>
+        <v>3.663283597772152</v>
       </c>
       <c r="AO8" t="n">
         <v>0.3782589959060547</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.327631576078781</v>
+        <v>0.3033254410066004</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.7410859991505152</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.6403223562152134</v>
+        <v>0.6667376496052966</v>
       </c>
       <c r="AS8" t="n">
         <v>0.5527973542593426</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.4712535092990501</v>
+        <v>0.4758495036483651</v>
       </c>
       <c r="AU8" t="n">
         <v>600</v>
       </c>
       <c r="AV8" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="AW8" t="n">
         <v>268</v>
       </c>
       <c r="AX8" t="n">
-        <v>558</v>
+        <v>748</v>
       </c>
       <c r="AY8" t="n">
         <v>72</v>
       </c>
       <c r="AZ8" t="n">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="BA8" t="n">
         <v>128</v>
       </c>
       <c r="BB8" t="n">
-        <v>276</v>
+        <v>347</v>
       </c>
       <c r="BC8" t="n">
         <v>25</v>
       </c>
       <c r="BD8" t="n">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="BE8" t="n">
         <v>89</v>
       </c>
       <c r="BF8" t="n">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="BG8" t="n">
         <v>49</v>
       </c>
       <c r="BH8" t="n">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="BI8" t="n">
         <v>68</v>
       </c>
       <c r="BJ8" t="n">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="BK8" t="n">
         <v>44</v>
       </c>
       <c r="BL8" t="n">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="BM8" t="n">
         <v>79</v>
       </c>
       <c r="BN8" t="n">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="BO8" t="n">
         <v>37</v>
       </c>
       <c r="BP8" t="n">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="BQ8" t="n">
         <v>8.666666666666666</v>
       </c>
       <c r="BR8" t="n">
-        <v>10.28571428571429</v>
+        <v>10.11111111111111</v>
       </c>
       <c r="BS8" t="n">
         <v>11.33333333333333</v>
       </c>
       <c r="BT8" t="n">
-        <v>12.57142857142857</v>
+        <v>12.88888888888889</v>
       </c>
       <c r="BU8" t="n">
         <v>69</v>
       </c>
       <c r="BV8" t="n">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="BW8" t="n">
         <v>63</v>
       </c>
       <c r="BX8" t="n">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="BY8" t="n">
         <v>227</v>
       </c>
       <c r="BZ8" t="n">
-        <v>549</v>
+        <v>718</v>
       </c>
       <c r="CA8" t="n">
         <v>280.92</v>
       </c>
       <c r="CB8" t="n">
-        <v>641.24</v>
+        <v>825.76</v>
       </c>
       <c r="CC8" t="n">
         <v>236.92</v>
       </c>
       <c r="CD8" t="n">
-        <v>552.24</v>
+        <v>722.76</v>
       </c>
       <c r="CE8" t="n">
         <v>3</v>
       </c>
       <c r="CF8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2673,250 +2673,250 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.866450339774649</v>
+        <v>0.888641238627681</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8934094251180115</v>
+        <v>0.9145866954959184</v>
       </c>
       <c r="E9" t="n">
-        <v>99.01588634055004</v>
+        <v>100.7903041967383</v>
       </c>
       <c r="F9" t="n">
-        <v>102.565990560572</v>
+        <v>104.5019048583374</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.550104220022</v>
+        <v>-3.71160066159911</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3113926092368844</v>
+        <v>0.2987581714065721</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6702716011466012</v>
+        <v>0.6684287283150919</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4906070869306671</v>
+        <v>0.4794016189165619</v>
       </c>
       <c r="K9" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="L9" t="n">
-        <v>818</v>
+        <v>906</v>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="N9" t="n">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="O9" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P9" t="n">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="Q9" t="n">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="R9" t="n">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="S9" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="T9" t="n">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="U9" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="V9" t="n">
-        <v>8.699999999999999</v>
+        <v>8.454545454545455</v>
       </c>
       <c r="W9" t="n">
-        <v>15.6</v>
+        <v>14.54545454545454</v>
       </c>
       <c r="X9" t="n">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="Y9" t="n">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="Z9" t="n">
-        <v>858</v>
+        <v>945</v>
       </c>
       <c r="AA9" t="n">
-        <v>953.76</v>
+        <v>1033</v>
       </c>
       <c r="AB9" t="n">
-        <v>829.76</v>
+        <v>904</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AE9" t="n">
         <v>0.868788464554244</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.864112214995054</v>
+        <v>0.9051852170222118</v>
       </c>
       <c r="AG9" t="n">
         <v>0.9186589599333738</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.8681598903026492</v>
+        <v>0.9111931417980389</v>
       </c>
       <c r="AI9" t="n">
         <v>98.91255672406392</v>
       </c>
       <c r="AJ9" t="n">
-        <v>99.11921595703616</v>
+        <v>102.3550937573003</v>
       </c>
       <c r="AK9" t="n">
         <v>105.3781260491041</v>
       </c>
       <c r="AL9" t="n">
-        <v>99.75385507203997</v>
+        <v>103.7717205326985</v>
       </c>
       <c r="AM9" t="n">
         <v>-6.465569325040194</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.6346391150038062</v>
+        <v>-1.416626775398206</v>
       </c>
       <c r="AO9" t="n">
         <v>0.3143562737251377</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.3084289447486311</v>
+        <v>0.2857597528077673</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.6831466011466011</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.6573966011466011</v>
+        <v>0.6561638342888343</v>
       </c>
       <c r="AS9" t="n">
         <v>0.5045083340682599</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.4767058397930742</v>
+        <v>0.4584793562901469</v>
       </c>
       <c r="AU9" t="n">
         <v>1000</v>
       </c>
       <c r="AV9" t="n">
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="AW9" t="n">
         <v>409</v>
       </c>
       <c r="AX9" t="n">
-        <v>409</v>
+        <v>497</v>
       </c>
       <c r="AY9" t="n">
         <v>100</v>
       </c>
       <c r="AZ9" t="n">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="BA9" t="n">
         <v>207</v>
       </c>
       <c r="BB9" t="n">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="BC9" t="n">
         <v>42</v>
       </c>
       <c r="BD9" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="BE9" t="n">
         <v>132</v>
       </c>
       <c r="BF9" t="n">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="BG9" t="n">
         <v>83</v>
       </c>
       <c r="BH9" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="BI9" t="n">
         <v>118</v>
       </c>
       <c r="BJ9" t="n">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="BK9" t="n">
         <v>59</v>
       </c>
       <c r="BL9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BM9" t="n">
         <v>135</v>
       </c>
       <c r="BN9" t="n">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="BO9" t="n">
         <v>54</v>
       </c>
       <c r="BP9" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="BQ9" t="n">
         <v>9.4</v>
       </c>
       <c r="BR9" t="n">
-        <v>8</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="BS9" t="n">
         <v>16.4</v>
       </c>
       <c r="BT9" t="n">
-        <v>14.8</v>
+        <v>13</v>
       </c>
       <c r="BU9" t="n">
         <v>122</v>
       </c>
       <c r="BV9" t="n">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="BW9" t="n">
         <v>107</v>
       </c>
       <c r="BX9" t="n">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="BY9" t="n">
         <v>439</v>
       </c>
       <c r="BZ9" t="n">
-        <v>419</v>
+        <v>506</v>
       </c>
       <c r="CA9" t="n">
         <v>472.92</v>
       </c>
       <c r="CB9" t="n">
-        <v>480.84</v>
+        <v>560.08</v>
       </c>
       <c r="CC9" t="n">
         <v>413.92</v>
       </c>
       <c r="CD9" t="n">
-        <v>415.84</v>
+        <v>490.08</v>
       </c>
       <c r="CE9" t="n">
         <v>5</v>
       </c>
       <c r="CF9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2931,250 +2931,250 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.815257915906107</v>
+        <v>0.8121001038114571</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8271630865119578</v>
+        <v>0.8511728757703246</v>
       </c>
       <c r="E10" t="n">
-        <v>91.3825321772936</v>
+        <v>91.49538169721791</v>
       </c>
       <c r="F10" t="n">
-        <v>92.21890155396447</v>
+        <v>94.18012321647058</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.8363693766708702</v>
+        <v>-2.684741519252678</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2735611171746571</v>
+        <v>0.2799888742412922</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7371609120389608</v>
+        <v>0.74468869106695</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5063040741910367</v>
+        <v>0.5041985428385222</v>
       </c>
       <c r="K10" t="n">
-        <v>2000</v>
+        <v>2475</v>
       </c>
       <c r="L10" t="n">
-        <v>752</v>
+        <v>929</v>
       </c>
       <c r="M10" t="n">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="N10" t="n">
-        <v>392</v>
+        <v>487</v>
       </c>
       <c r="O10" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="P10" t="n">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="Q10" t="n">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="R10" t="n">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="S10" t="n">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="T10" t="n">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="U10" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="V10" t="n">
-        <v>11.4</v>
+        <v>11.75</v>
       </c>
       <c r="W10" t="n">
-        <v>18</v>
+        <v>17.25</v>
       </c>
       <c r="X10" t="n">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="Y10" t="n">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="Z10" t="n">
-        <v>761</v>
+        <v>951</v>
       </c>
       <c r="AA10" t="n">
-        <v>925.04</v>
+        <v>1147.24</v>
       </c>
       <c r="AB10" t="n">
-        <v>824.04</v>
+        <v>1016.24</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.85544506469552</v>
+        <v>0.844548840594649</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.7750707671166938</v>
+        <v>0.7796513670282654</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.8330332112809022</v>
+        <v>0.8525910347442226</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.8212929617430133</v>
+        <v>0.8497547167964266</v>
       </c>
       <c r="AI10" t="n">
-        <v>95.37541319060419</v>
+        <v>94.16687985494816</v>
       </c>
       <c r="AJ10" t="n">
-        <v>87.38965116398302</v>
+        <v>88.82388353948765</v>
       </c>
       <c r="AK10" t="n">
-        <v>92.78533191635168</v>
+        <v>94.72802872243612</v>
       </c>
       <c r="AL10" t="n">
-        <v>91.65247119157728</v>
+        <v>93.63221771050503</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.590081274252518</v>
+        <v>-0.561148867487954</v>
       </c>
       <c r="AN10" t="n">
-        <v>-4.262820027594257</v>
+        <v>-4.808334171017401</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.27625</v>
+        <v>0.266875</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.2708722343493141</v>
+        <v>0.2931027484825845</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.7366367972250325</v>
+        <v>0.7288065264231594</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.7376850268528892</v>
+        <v>0.7605708557107409</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.5160620073735063</v>
+        <v>0.4954525166931117</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.4965461410085673</v>
+        <v>0.5129445689839326</v>
       </c>
       <c r="AU10" t="n">
-        <v>1000</v>
+        <v>1225</v>
       </c>
       <c r="AV10" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AW10" t="n">
-        <v>388</v>
+        <v>472</v>
       </c>
       <c r="AX10" t="n">
-        <v>364</v>
+        <v>457</v>
       </c>
       <c r="AY10" t="n">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="AZ10" t="n">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="BA10" t="n">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="BB10" t="n">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="BD10" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="BE10" t="n">
+        <v>169</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>154</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>93</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>90</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>143</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>153</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>58</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>73</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>153</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>159</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>102</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>108</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>10.16666666666667</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>19</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>144</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>139</v>
+      </c>
+      <c r="BW10" t="n">
         <v>126</v>
       </c>
-      <c r="BF10" t="n">
-        <v>121</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>74</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>72</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>115</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>126</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>47</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>54</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>133</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>131</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>84</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>86</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>118</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>117</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>104</v>
-      </c>
       <c r="BX10" t="n">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="BY10" t="n">
-        <v>386</v>
+        <v>481</v>
       </c>
       <c r="BZ10" t="n">
-        <v>375</v>
+        <v>470</v>
       </c>
       <c r="CA10" t="n">
-        <v>454.6</v>
+        <v>560.9200000000001</v>
       </c>
       <c r="CB10" t="n">
-        <v>470.44</v>
+        <v>586.3199999999999</v>
       </c>
       <c r="CC10" t="n">
-        <v>407.6</v>
+        <v>502.92</v>
       </c>
       <c r="CD10" t="n">
-        <v>416.44</v>
+        <v>513.3199999999999</v>
       </c>
       <c r="CE10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3189,250 +3189,250 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.853638753785753</v>
+        <v>0.8492324366867846</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8817566538302302</v>
+        <v>0.8784290974922465</v>
       </c>
       <c r="E11" t="n">
-        <v>96.57570672151049</v>
+        <v>94.8403748842203</v>
       </c>
       <c r="F11" t="n">
-        <v>98.37264473281681</v>
+        <v>98.33420357499227</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.796938011306332</v>
+        <v>-3.493828690771984</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2897624443075004</v>
+        <v>0.2600698940657741</v>
       </c>
       <c r="I11" t="n">
-        <v>0.734469726062468</v>
+        <v>0.7229255514458188</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5096554538179736</v>
+        <v>0.4941573226260891</v>
       </c>
       <c r="K11" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L11" t="n">
-        <v>770</v>
+        <v>909</v>
       </c>
       <c r="M11" t="n">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="N11" t="n">
-        <v>385</v>
+        <v>449</v>
       </c>
       <c r="O11" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="P11" t="n">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="Q11" t="n">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="R11" t="n">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="S11" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="T11" t="n">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="U11" t="n">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="V11" t="n">
-        <v>7.9</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="W11" t="n">
-        <v>15.7</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="X11" t="n">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="Y11" t="n">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="Z11" t="n">
-        <v>779</v>
+        <v>947</v>
       </c>
       <c r="AA11" t="n">
-        <v>897</v>
+        <v>1065.12</v>
       </c>
       <c r="AB11" t="n">
-        <v>795</v>
+        <v>956.12</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.7911065615281678</v>
+        <v>0.7963168714489117</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.9161709460433383</v>
+        <v>0.9021480019246574</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.8422264542018972</v>
+        <v>0.8727604919825764</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.921286853458563</v>
+        <v>0.8840977030019168</v>
       </c>
       <c r="AI11" t="n">
-        <v>90.9037778570208</v>
+        <v>90.42450971653142</v>
       </c>
       <c r="AJ11" t="n">
-        <v>102.2476355860002</v>
+        <v>99.25624005190917</v>
       </c>
       <c r="AK11" t="n">
-        <v>94.67346292743284</v>
+        <v>97.51236596350712</v>
       </c>
       <c r="AL11" t="n">
-        <v>102.0718265382008</v>
+        <v>99.15604118647742</v>
       </c>
       <c r="AM11" t="n">
-        <v>-3.769685070412041</v>
+        <v>-7.087856246975694</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.1758090477993768</v>
+        <v>0.1001988654317246</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.3000167278568401</v>
+        <v>0.2812639398807</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.2795081607581608</v>
+        <v>0.2388758482508483</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.7177182539682539</v>
+        <v>0.7277281746031746</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.7512211981566821</v>
+        <v>0.7181229282884631</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.5012536202048458</v>
+        <v>0.5010446835040382</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5180572874311015</v>
+        <v>0.4872699617481401</v>
       </c>
       <c r="AU11" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="AV11" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="AW11" t="n">
-        <v>349</v>
+        <v>424</v>
       </c>
       <c r="AX11" t="n">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="AY11" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AZ11" t="n">
+        <v>114</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>227</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>222</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>42</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>52</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>145</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>150</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>98</v>
+      </c>
+      <c r="BH11" t="n">
         <v>101</v>
       </c>
-      <c r="BA11" t="n">
-        <v>187</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>198</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>36</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>43</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>123</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>122</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>79</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>90</v>
-      </c>
       <c r="BI11" t="n">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="BJ11" t="n">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="BK11" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="BL11" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BM11" t="n">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="BN11" t="n">
+        <v>152</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>68</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>98</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>16</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>147</v>
+      </c>
+      <c r="BV11" t="n">
         <v>131</v>
       </c>
-      <c r="BO11" t="n">
-        <v>56</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>9</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>117</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>102</v>
-      </c>
       <c r="BW11" t="n">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="BX11" t="n">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="BY11" t="n">
-        <v>367</v>
+        <v>467</v>
       </c>
       <c r="BZ11" t="n">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="CA11" t="n">
-        <v>439.92</v>
+        <v>531.12</v>
       </c>
       <c r="CB11" t="n">
-        <v>457.08</v>
+        <v>534</v>
       </c>
       <c r="CC11" t="n">
-        <v>384.92</v>
+        <v>470.12</v>
       </c>
       <c r="CD11" t="n">
-        <v>410.08</v>
+        <v>486</v>
       </c>
       <c r="CE11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -3447,247 +3447,247 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8697242685032329</v>
+        <v>0.8812454296965536</v>
       </c>
       <c r="D12" t="n">
-        <v>0.825491524092395</v>
+        <v>0.8175549288456274</v>
       </c>
       <c r="E12" t="n">
-        <v>99.24360803643565</v>
+        <v>100.2827237571317</v>
       </c>
       <c r="F12" t="n">
-        <v>96.02983966953852</v>
+        <v>95.45557412324295</v>
       </c>
       <c r="G12" t="n">
-        <v>3.213768366897134</v>
+        <v>4.827149633888794</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3259439654934023</v>
+        <v>0.3266157262061233</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6790175864050184</v>
+        <v>0.6710077231781159</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5118315715307373</v>
+        <v>0.5101157692532952</v>
       </c>
       <c r="K12" t="n">
-        <v>2025</v>
+        <v>2225</v>
       </c>
       <c r="L12" t="n">
-        <v>798</v>
+        <v>888</v>
       </c>
       <c r="M12" t="n">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="N12" t="n">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="O12" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="P12" t="n">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="Q12" t="n">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="R12" t="n">
+        <v>326</v>
+      </c>
+      <c r="S12" t="n">
+        <v>125</v>
+      </c>
+      <c r="T12" t="n">
         <v>298</v>
       </c>
-      <c r="S12" t="n">
-        <v>116</v>
-      </c>
-      <c r="T12" t="n">
-        <v>272</v>
-      </c>
       <c r="U12" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="V12" t="n">
-        <v>8.300000000000001</v>
+        <v>8.636363636363637</v>
       </c>
       <c r="W12" t="n">
-        <v>15.4</v>
+        <v>15.54545454545454</v>
       </c>
       <c r="X12" t="n">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="Y12" t="n">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="Z12" t="n">
-        <v>762</v>
+        <v>837</v>
       </c>
       <c r="AA12" t="n">
-        <v>921.12</v>
+        <v>1011.44</v>
       </c>
       <c r="AB12" t="n">
-        <v>805.12</v>
+        <v>886.4399999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.881593712203698</v>
+        <v>0.9007376004413751</v>
       </c>
       <c r="AF12" t="n">
         <v>0.857854824802768</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.8758670835847994</v>
+        <v>0.8529207323836582</v>
       </c>
       <c r="AH12" t="n">
         <v>0.7751159645999904</v>
       </c>
       <c r="AI12" t="n">
-        <v>100.1656869006173</v>
+        <v>101.9170525778631</v>
       </c>
       <c r="AJ12" t="n">
         <v>98.32152917225405</v>
       </c>
       <c r="AK12" t="n">
-        <v>100.9051963420746</v>
+        <v>99.03981672844333</v>
       </c>
       <c r="AL12" t="n">
         <v>91.15448299700248</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.7395094414573276</v>
+        <v>2.877235849419794</v>
       </c>
       <c r="AN12" t="n">
         <v>7.167046175251595</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.322143992732228</v>
+        <v>0.3240088828324122</v>
       </c>
       <c r="AP12" t="n">
         <v>0.3297439382545765</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.6765248226950356</v>
+        <v>0.6622555340640447</v>
       </c>
       <c r="AR12" t="n">
         <v>0.6815103501150013</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.5079480572355008</v>
+        <v>0.5054496721093962</v>
       </c>
       <c r="AT12" t="n">
         <v>0.5157150858259738</v>
       </c>
       <c r="AU12" t="n">
-        <v>1025</v>
+        <v>1225</v>
       </c>
       <c r="AV12" t="n">
         <v>1000</v>
       </c>
       <c r="AW12" t="n">
-        <v>403</v>
+        <v>493</v>
       </c>
       <c r="AX12" t="n">
         <v>395</v>
       </c>
       <c r="AY12" t="n">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="AZ12" t="n">
         <v>97</v>
       </c>
       <c r="BA12" t="n">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="BB12" t="n">
         <v>193</v>
       </c>
       <c r="BC12" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="BD12" t="n">
         <v>38</v>
       </c>
       <c r="BE12" t="n">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="BF12" t="n">
         <v>126</v>
       </c>
       <c r="BG12" t="n">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="BH12" t="n">
         <v>87</v>
       </c>
       <c r="BI12" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="BJ12" t="n">
         <v>145</v>
       </c>
       <c r="BK12" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="BL12" t="n">
         <v>60</v>
       </c>
       <c r="BM12" t="n">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="BN12" t="n">
         <v>144</v>
       </c>
       <c r="BO12" t="n">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="BP12" t="n">
         <v>76</v>
       </c>
       <c r="BQ12" t="n">
-        <v>6.8</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="BR12" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="BS12" t="n">
-        <v>15</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="BT12" t="n">
         <v>15.8</v>
       </c>
       <c r="BU12" t="n">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="BV12" t="n">
         <v>93</v>
       </c>
       <c r="BW12" t="n">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="BX12" t="n">
         <v>115</v>
       </c>
       <c r="BY12" t="n">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="BZ12" t="n">
         <v>364</v>
       </c>
       <c r="CA12" t="n">
-        <v>459.32</v>
+        <v>549.64</v>
       </c>
       <c r="CB12" t="n">
         <v>461.8</v>
       </c>
       <c r="CC12" t="n">
-        <v>403.32</v>
+        <v>484.64</v>
       </c>
       <c r="CD12" t="n">
         <v>401.8</v>
       </c>
       <c r="CE12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF12" t="n">
         <v>5</v>
@@ -3705,250 +3705,250 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7267636233007042</v>
+        <v>0.7474786104446708</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7667121314468052</v>
+        <v>0.7596637728292442</v>
       </c>
       <c r="E13" t="n">
-        <v>82.47596636905148</v>
+        <v>84.48588638705451</v>
       </c>
       <c r="F13" t="n">
-        <v>88.60307569796973</v>
+        <v>87.35940320265674</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.12710932891827</v>
+        <v>-2.873516815602237</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2924816084328468</v>
+        <v>0.2957872188500325</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7060237774086251</v>
+        <v>0.7181679626553357</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5150506683650334</v>
+        <v>0.5277584683632662</v>
       </c>
       <c r="K13" t="n">
-        <v>2000</v>
+        <v>2425</v>
       </c>
       <c r="L13" t="n">
-        <v>648</v>
+        <v>817</v>
       </c>
       <c r="M13" t="n">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="N13" t="n">
-        <v>407</v>
+        <v>498</v>
       </c>
       <c r="O13" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P13" t="n">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="Q13" t="n">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="R13" t="n">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="S13" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="T13" t="n">
-        <v>295</v>
+        <v>369</v>
       </c>
       <c r="U13" t="n">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="V13" t="n">
-        <v>5.9</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="W13" t="n">
-        <v>17.3</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="X13" t="n">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="Y13" t="n">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="Z13" t="n">
-        <v>706</v>
+        <v>849</v>
       </c>
       <c r="AA13" t="n">
-        <v>888.1600000000001</v>
+        <v>1086.56</v>
       </c>
       <c r="AB13" t="n">
-        <v>782.1600000000001</v>
+        <v>960.5600000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.7728800265651865</v>
+        <v>0.7693545121823527</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.6806472200362217</v>
+        <v>0.7256027087069888</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.7425422886883497</v>
+        <v>0.7285812804723891</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.7908819742052606</v>
+        <v>0.7907462651860994</v>
       </c>
       <c r="AI13" t="n">
-        <v>88.3664585705848</v>
+        <v>87.74362550903413</v>
       </c>
       <c r="AJ13" t="n">
-        <v>76.58547416751816</v>
+        <v>81.22814726507487</v>
       </c>
       <c r="AK13" t="n">
-        <v>85.04061494742714</v>
+        <v>83.22682383544185</v>
       </c>
       <c r="AL13" t="n">
-        <v>92.16553644851233</v>
+        <v>91.49198256987161</v>
       </c>
       <c r="AM13" t="n">
-        <v>3.325843623157642</v>
+        <v>4.516801673592293</v>
       </c>
       <c r="AN13" t="n">
-        <v>-15.58006228099418</v>
+        <v>-10.26383530479677</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.3178767507002801</v>
+        <v>0.3172782446311858</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.2670864661654135</v>
+        <v>0.2742961930688791</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.7320857635751252</v>
+        <v>0.7397010992755674</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.679961791242125</v>
+        <v>0.6966348260351042</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.5478015130969099</v>
+        <v>0.5523345942474249</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.4822998236331569</v>
+        <v>0.5031823424791075</v>
       </c>
       <c r="AU13" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="AV13" t="n">
-        <v>1000</v>
+        <v>1225</v>
       </c>
       <c r="AW13" t="n">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="AX13" t="n">
-        <v>301</v>
+        <v>396</v>
       </c>
       <c r="AY13" t="n">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="AZ13" t="n">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="BA13" t="n">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="BB13" t="n">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="BC13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BD13" t="n">
+        <v>27</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>129</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>121</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>73</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>63</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>142</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>132</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>59</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>189</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>180</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>78</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>68</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="BT13" t="n">
         <v>18</v>
       </c>
-      <c r="BE13" t="n">
-        <v>112</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>102</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>62</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>47</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>116</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>98</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>56</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>50</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>154</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>141</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>48</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>18</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>16.6</v>
-      </c>
       <c r="BU13" t="n">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="BV13" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="BW13" t="n">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="BX13" t="n">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="BY13" t="n">
-        <v>344</v>
+        <v>403</v>
       </c>
       <c r="BZ13" t="n">
-        <v>362</v>
+        <v>446</v>
       </c>
       <c r="CA13" t="n">
-        <v>448.04</v>
+        <v>546.48</v>
       </c>
       <c r="CB13" t="n">
-        <v>440.12</v>
+        <v>540.08</v>
       </c>
       <c r="CC13" t="n">
-        <v>392.04</v>
+        <v>479.48</v>
       </c>
       <c r="CD13" t="n">
-        <v>390.12</v>
+        <v>481.08</v>
       </c>
       <c r="CE13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -3963,250 +3963,250 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8908563302662902</v>
+        <v>0.8620753524799617</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7668403907811504</v>
+        <v>0.7914078525643765</v>
       </c>
       <c r="E14" t="n">
-        <v>105.2640465058955</v>
+        <v>102.2442081789252</v>
       </c>
       <c r="F14" t="n">
-        <v>86.43046946443323</v>
+        <v>88.27315316582325</v>
       </c>
       <c r="G14" t="n">
-        <v>18.83357704146223</v>
+        <v>13.97105501310196</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3877505204295518</v>
+        <v>0.3944970445365882</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7381181327325045</v>
+        <v>0.7510111423564522</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5613772252668184</v>
+        <v>0.5656234310713315</v>
       </c>
       <c r="K14" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L14" t="n">
-        <v>826</v>
+        <v>969</v>
       </c>
       <c r="M14" t="n">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="N14" t="n">
-        <v>416</v>
+        <v>500</v>
       </c>
       <c r="O14" t="n">
+        <v>95</v>
+      </c>
+      <c r="P14" t="n">
+        <v>301</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>234</v>
+      </c>
+      <c r="R14" t="n">
+        <v>354</v>
+      </c>
+      <c r="S14" t="n">
+        <v>180</v>
+      </c>
+      <c r="T14" t="n">
+        <v>315</v>
+      </c>
+      <c r="U14" t="n">
+        <v>182</v>
+      </c>
+      <c r="V14" t="n">
+        <v>9.583333333333334</v>
+      </c>
+      <c r="W14" t="n">
+        <v>14.41666666666667</v>
+      </c>
+      <c r="X14" t="n">
+        <v>257</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>287</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>819</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1129.76</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>949.76</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.8780517519787558</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.8301225534823736</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.7894624300904508</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.7952986975122279</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>104.2937482405118</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>98.14512805575211</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>88.04844163382175</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>88.72257622982625</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>16.24530660669001</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>9.422551825925851</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.3985081393387314</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.3864748549323018</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.7674256264419463</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.7181821741854637</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.5770360883005188</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.5427981166129568</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>800</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>655</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>314</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>145</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>334</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>166</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>199</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>102</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>164</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>70</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>248</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>106</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>121</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>59</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>220</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>95</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>116</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>66</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>13.375</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>171</v>
+      </c>
+      <c r="BV14" t="n">
         <v>86</v>
       </c>
-      <c r="P14" t="n">
-        <v>254</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>182</v>
-      </c>
-      <c r="R14" t="n">
-        <v>279</v>
-      </c>
-      <c r="S14" t="n">
-        <v>145</v>
-      </c>
-      <c r="T14" t="n">
-        <v>270</v>
-      </c>
-      <c r="U14" t="n">
-        <v>161</v>
-      </c>
-      <c r="V14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="W14" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="X14" t="n">
-        <v>215</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>231</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>665</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>930.76</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>785.76</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.9037517235873372</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0.8607670791838472</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0.7833808799131933</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0.7282459161397169</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>107.1104102137476</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>100.9558645209071</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>88.58403866987427</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>81.40547465173749</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>18.52637154387336</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>19.5503898691696</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0.3915280990938886</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0.378936170212766</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0.7393027567499796</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0.7353540100250626</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0.5642317199624977</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0.554716737643567</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>1400</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>600</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>587</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>239</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>128</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>65</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>291</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>125</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>64</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>22</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>177</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>77</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>139</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>43</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>213</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>66</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>104</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>193</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>77</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>110</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>8.857142857142858</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>12</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>12.85714285714286</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>16</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>154</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>61</v>
-      </c>
       <c r="BW14" t="n">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="BX14" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="BY14" t="n">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="BZ14" t="n">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="CA14" t="n">
-        <v>651.72</v>
+        <v>749.12</v>
       </c>
       <c r="CB14" t="n">
-        <v>279.04</v>
+        <v>380.64</v>
       </c>
       <c r="CC14" t="n">
-        <v>547.72</v>
+        <v>628.12</v>
       </c>
       <c r="CD14" t="n">
-        <v>238.04</v>
+        <v>321.64</v>
       </c>
       <c r="CE14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CF14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -4221,250 +4221,250 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8775691639563205</v>
+        <v>0.8823531209817416</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8551810836133589</v>
+        <v>0.8566078744711869</v>
       </c>
       <c r="E15" t="n">
-        <v>101.220134440948</v>
+        <v>101.3535084662819</v>
       </c>
       <c r="F15" t="n">
-        <v>97.81545873727507</v>
+        <v>97.81775548679167</v>
       </c>
       <c r="G15" t="n">
-        <v>3.404675703672949</v>
+        <v>3.535752979490187</v>
       </c>
       <c r="H15" t="n">
-        <v>0.353460643118333</v>
+        <v>0.3533415712854795</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6825135899263806</v>
+        <v>0.6888313950087205</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5174367318146953</v>
+        <v>0.5238208365271104</v>
       </c>
       <c r="K15" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L15" t="n">
-        <v>885</v>
+        <v>1072</v>
       </c>
       <c r="M15" t="n">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="N15" t="n">
-        <v>483</v>
+        <v>566</v>
       </c>
       <c r="O15" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="P15" t="n">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="n">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="R15" t="n">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="S15" t="n">
+        <v>158</v>
+      </c>
+      <c r="T15" t="n">
+        <v>325</v>
+      </c>
+      <c r="U15" t="n">
+        <v>209</v>
+      </c>
+      <c r="V15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>17.16666666666667</v>
+      </c>
+      <c r="X15" t="n">
+        <v>283</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>279</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1007</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1217.2</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1059.2</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.8725652555270367</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.8921409864364466</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.8557720105260963</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.8574437384162774</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>100.7809331010022</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>101.9260838315615</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>97.89591410257985</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>97.73959687100349</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>2.885018998422385</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.18648696055799</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.3757212553590719</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.3309618872118872</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.6864915050961562</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.6911712849212849</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.533491362221534</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.5141503108326867</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>550</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>522</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>155</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>139</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>296</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>270</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>39</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>44</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>146</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>154</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>123</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>112</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>178</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>152</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>85</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>73</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>167</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>158</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>109</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>15.83333333333333</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>140</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>143</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>144</v>
+      </c>
+      <c r="BX15" t="n">
         <v>135</v>
       </c>
-      <c r="T15" t="n">
-        <v>266</v>
-      </c>
-      <c r="U15" t="n">
-        <v>165</v>
-      </c>
-      <c r="V15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="W15" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="X15" t="n">
-        <v>236</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>230</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>839</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1010.92</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>875.92</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.8638520127148013</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.8912863151978394</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0.8704189991222547</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0.839943168104463</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>99.82262255098064</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>102.6176463309154</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>99.40567229161698</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>96.22524518293314</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0.4169502593636725</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>6.392401147982226</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0.3660170215824014</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0.3409042646542647</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0.6815675838931653</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0.6834595959595959</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0.5222409167171229</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0.5126325469122677</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>453</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>432</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>128</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>119</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>232</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>30</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>36</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>115</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>127</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>107</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>86</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>151</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>117</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>71</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>64</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>135</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>131</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>87</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>78</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>15</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>114</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>122</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>121</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>109</v>
-      </c>
       <c r="BY15" t="n">
-        <v>435</v>
+        <v>511</v>
       </c>
       <c r="BZ15" t="n">
-        <v>404</v>
+        <v>496</v>
       </c>
       <c r="CA15" t="n">
-        <v>525.4400000000001</v>
+        <v>631.3200000000001</v>
       </c>
       <c r="CB15" t="n">
-        <v>485.48</v>
+        <v>585.88</v>
       </c>
       <c r="CC15" t="n">
-        <v>454.44</v>
+        <v>546.3199999999999</v>
       </c>
       <c r="CD15" t="n">
-        <v>421.48</v>
+        <v>512.88</v>
       </c>
       <c r="CE15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/3FEB_25_26/teams_25_26_3FEB.xlsx
+++ b/data/3FEB_25_26/teams_25_26_3FEB.xlsx
@@ -924,10 +924,10 @@
         <v>167</v>
       </c>
       <c r="V2" t="n">
-        <v>9.5</v>
+        <v>114</v>
       </c>
       <c r="W2" t="n">
-        <v>16.75</v>
+        <v>201</v>
       </c>
       <c r="X2" t="n">
         <v>283</v>
@@ -1065,16 +1065,16 @@
         <v>80</v>
       </c>
       <c r="BQ2" t="n">
-        <v>9.5</v>
+        <v>57</v>
       </c>
       <c r="BR2" t="n">
-        <v>9.5</v>
+        <v>57</v>
       </c>
       <c r="BS2" t="n">
-        <v>18.5</v>
+        <v>111</v>
       </c>
       <c r="BT2" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="BU2" t="n">
         <v>143</v>
@@ -1182,10 +1182,10 @@
         <v>104</v>
       </c>
       <c r="V3" t="n">
-        <v>7.818181818181818</v>
+        <v>86</v>
       </c>
       <c r="W3" t="n">
-        <v>16.45454545454545</v>
+        <v>181</v>
       </c>
       <c r="X3" t="n">
         <v>268</v>
@@ -1323,16 +1323,16 @@
         <v>45</v>
       </c>
       <c r="BQ3" t="n">
-        <v>7.8</v>
+        <v>39</v>
       </c>
       <c r="BR3" t="n">
-        <v>7.833333333333333</v>
+        <v>47</v>
       </c>
       <c r="BS3" t="n">
-        <v>18.8</v>
+        <v>94</v>
       </c>
       <c r="BT3" t="n">
-        <v>14.5</v>
+        <v>87</v>
       </c>
       <c r="BU3" t="n">
         <v>131</v>
@@ -1440,10 +1440,10 @@
         <v>161</v>
       </c>
       <c r="V4" t="n">
-        <v>7.416666666666667</v>
+        <v>89</v>
       </c>
       <c r="W4" t="n">
-        <v>16.5</v>
+        <v>198</v>
       </c>
       <c r="X4" t="n">
         <v>289</v>
@@ -1581,16 +1581,16 @@
         <v>68</v>
       </c>
       <c r="BQ4" t="n">
-        <v>6.428571428571429</v>
+        <v>45</v>
       </c>
       <c r="BR4" t="n">
-        <v>8.800000000000001</v>
+        <v>44</v>
       </c>
       <c r="BS4" t="n">
-        <v>19.28571428571428</v>
+        <v>135</v>
       </c>
       <c r="BT4" t="n">
-        <v>12.6</v>
+        <v>63</v>
       </c>
       <c r="BU4" t="n">
         <v>168</v>
@@ -1698,10 +1698,10 @@
         <v>160</v>
       </c>
       <c r="V5" t="n">
-        <v>8.166666666666666</v>
+        <v>98</v>
       </c>
       <c r="W5" t="n">
-        <v>14.58333333333333</v>
+        <v>175</v>
       </c>
       <c r="X5" t="n">
         <v>265</v>
@@ -1839,16 +1839,16 @@
         <v>74</v>
       </c>
       <c r="BQ5" t="n">
-        <v>8.5</v>
+        <v>51</v>
       </c>
       <c r="BR5" t="n">
-        <v>7.833333333333333</v>
+        <v>47</v>
       </c>
       <c r="BS5" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="BT5" t="n">
-        <v>14.16666666666667</v>
+        <v>85</v>
       </c>
       <c r="BU5" t="n">
         <v>137</v>
@@ -1956,10 +1956,10 @@
         <v>169</v>
       </c>
       <c r="V6" t="n">
-        <v>8.916666666666666</v>
+        <v>107</v>
       </c>
       <c r="W6" t="n">
-        <v>13.5</v>
+        <v>162</v>
       </c>
       <c r="X6" t="n">
         <v>256</v>
@@ -2097,16 +2097,16 @@
         <v>95</v>
       </c>
       <c r="BQ6" t="n">
-        <v>9.5</v>
+        <v>57</v>
       </c>
       <c r="BR6" t="n">
-        <v>8.333333333333334</v>
+        <v>50</v>
       </c>
       <c r="BS6" t="n">
-        <v>12.33333333333333</v>
+        <v>74</v>
       </c>
       <c r="BT6" t="n">
-        <v>14.66666666666667</v>
+        <v>88</v>
       </c>
       <c r="BU6" t="n">
         <v>126</v>
@@ -2214,10 +2214,10 @@
         <v>178</v>
       </c>
       <c r="V7" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="W7" t="n">
-        <v>12.63636363636364</v>
+        <v>139</v>
       </c>
       <c r="X7" t="n">
         <v>262</v>
@@ -2355,16 +2355,16 @@
         <v>76</v>
       </c>
       <c r="BQ7" t="n">
-        <v>12.33333333333333</v>
+        <v>74</v>
       </c>
       <c r="BR7" t="n">
-        <v>9.4</v>
+        <v>47</v>
       </c>
       <c r="BS7" t="n">
-        <v>12.66666666666667</v>
+        <v>76</v>
       </c>
       <c r="BT7" t="n">
-        <v>12.6</v>
+        <v>63</v>
       </c>
       <c r="BU7" t="n">
         <v>138</v>
@@ -2472,10 +2472,10 @@
         <v>169</v>
       </c>
       <c r="V8" t="n">
-        <v>9.75</v>
+        <v>117</v>
       </c>
       <c r="W8" t="n">
-        <v>12.5</v>
+        <v>150</v>
       </c>
       <c r="X8" t="n">
         <v>281</v>
@@ -2613,16 +2613,16 @@
         <v>132</v>
       </c>
       <c r="BQ8" t="n">
-        <v>8.666666666666666</v>
+        <v>26</v>
       </c>
       <c r="BR8" t="n">
-        <v>10.11111111111111</v>
+        <v>91</v>
       </c>
       <c r="BS8" t="n">
-        <v>11.33333333333333</v>
+        <v>34</v>
       </c>
       <c r="BT8" t="n">
-        <v>12.88888888888889</v>
+        <v>116</v>
       </c>
       <c r="BU8" t="n">
         <v>69</v>
@@ -2730,10 +2730,10 @@
         <v>118</v>
       </c>
       <c r="V9" t="n">
-        <v>8.454545454545455</v>
+        <v>93</v>
       </c>
       <c r="W9" t="n">
-        <v>14.54545454545454</v>
+        <v>160</v>
       </c>
       <c r="X9" t="n">
         <v>285</v>
@@ -2871,16 +2871,16 @@
         <v>64</v>
       </c>
       <c r="BQ9" t="n">
-        <v>9.4</v>
+        <v>47</v>
       </c>
       <c r="BR9" t="n">
-        <v>7.666666666666667</v>
+        <v>46</v>
       </c>
       <c r="BS9" t="n">
-        <v>16.4</v>
+        <v>82</v>
       </c>
       <c r="BT9" t="n">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="BU9" t="n">
         <v>122</v>
@@ -2988,10 +2988,10 @@
         <v>210</v>
       </c>
       <c r="V10" t="n">
-        <v>11.75</v>
+        <v>141</v>
       </c>
       <c r="W10" t="n">
-        <v>17.25</v>
+        <v>207</v>
       </c>
       <c r="X10" t="n">
         <v>283</v>
@@ -3129,16 +3129,16 @@
         <v>108</v>
       </c>
       <c r="BQ10" t="n">
-        <v>13.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="BR10" t="n">
-        <v>10.16666666666667</v>
+        <v>61</v>
       </c>
       <c r="BS10" t="n">
-        <v>15.5</v>
+        <v>93</v>
       </c>
       <c r="BT10" t="n">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="BU10" t="n">
         <v>144</v>
@@ -3246,10 +3246,10 @@
         <v>166</v>
       </c>
       <c r="V11" t="n">
-        <v>8.083333333333334</v>
+        <v>97</v>
       </c>
       <c r="W11" t="n">
-        <v>15.83333333333333</v>
+        <v>190</v>
       </c>
       <c r="X11" t="n">
         <v>278</v>
@@ -3387,16 +3387,16 @@
         <v>98</v>
       </c>
       <c r="BQ11" t="n">
-        <v>8.166666666666666</v>
+        <v>49</v>
       </c>
       <c r="BR11" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="BS11" t="n">
-        <v>15.66666666666667</v>
+        <v>94</v>
       </c>
       <c r="BT11" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="BU11" t="n">
         <v>147</v>
@@ -3504,10 +3504,10 @@
         <v>170</v>
       </c>
       <c r="V12" t="n">
-        <v>8.636363636363637</v>
+        <v>95</v>
       </c>
       <c r="W12" t="n">
-        <v>15.54545454545454</v>
+        <v>171</v>
       </c>
       <c r="X12" t="n">
         <v>217</v>
@@ -3645,16 +3645,16 @@
         <v>76</v>
       </c>
       <c r="BQ12" t="n">
-        <v>7.666666666666667</v>
+        <v>46</v>
       </c>
       <c r="BR12" t="n">
-        <v>9.800000000000001</v>
+        <v>49</v>
       </c>
       <c r="BS12" t="n">
-        <v>15.33333333333333</v>
+        <v>92</v>
       </c>
       <c r="BT12" t="n">
-        <v>15.8</v>
+        <v>79</v>
       </c>
       <c r="BU12" t="n">
         <v>124</v>
@@ -3762,10 +3762,10 @@
         <v>146</v>
       </c>
       <c r="V13" t="n">
-        <v>6.083333333333333</v>
+        <v>73</v>
       </c>
       <c r="W13" t="n">
-        <v>18.16666666666667</v>
+        <v>218</v>
       </c>
       <c r="X13" t="n">
         <v>261</v>
@@ -3903,16 +3903,16 @@
         <v>68</v>
       </c>
       <c r="BQ13" t="n">
-        <v>5.166666666666667</v>
+        <v>31</v>
       </c>
       <c r="BR13" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="BS13" t="n">
-        <v>18.33333333333333</v>
+        <v>110</v>
       </c>
       <c r="BT13" t="n">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="BU13" t="n">
         <v>131</v>
@@ -4020,10 +4020,10 @@
         <v>182</v>
       </c>
       <c r="V14" t="n">
-        <v>9.583333333333334</v>
+        <v>115</v>
       </c>
       <c r="W14" t="n">
-        <v>14.41666666666667</v>
+        <v>173</v>
       </c>
       <c r="X14" t="n">
         <v>257</v>
@@ -4161,16 +4161,16 @@
         <v>66</v>
       </c>
       <c r="BQ14" t="n">
-        <v>8.5</v>
+        <v>68</v>
       </c>
       <c r="BR14" t="n">
-        <v>11.75</v>
+        <v>47</v>
       </c>
       <c r="BS14" t="n">
-        <v>13.375</v>
+        <v>107</v>
       </c>
       <c r="BT14" t="n">
-        <v>16.5</v>
+        <v>66</v>
       </c>
       <c r="BU14" t="n">
         <v>171</v>
@@ -4278,10 +4278,10 @@
         <v>209</v>
       </c>
       <c r="V15" t="n">
-        <v>8.5</v>
+        <v>102</v>
       </c>
       <c r="W15" t="n">
-        <v>17.16666666666667</v>
+        <v>206</v>
       </c>
       <c r="X15" t="n">
         <v>283</v>
@@ -4419,16 +4419,16 @@
         <v>100</v>
       </c>
       <c r="BQ15" t="n">
-        <v>8.333333333333334</v>
+        <v>50</v>
       </c>
       <c r="BR15" t="n">
-        <v>8.666666666666666</v>
+        <v>52</v>
       </c>
       <c r="BS15" t="n">
-        <v>18.5</v>
+        <v>111</v>
       </c>
       <c r="BT15" t="n">
-        <v>15.83333333333333</v>
+        <v>95</v>
       </c>
       <c r="BU15" t="n">
         <v>140</v>
